--- a/capiq_data/in_process_data/IQ31500.xlsx
+++ b/capiq_data/in_process_data/IQ31500.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{816361E5-D24B-49D8-B1B6-CF16ABF03FC1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5C2E84D-49AE-4E3B-9E57-53CB16E4B463}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"75efb299-705f-46f1-9137-ff349cbb2754"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"c159f325-bdc0-4957-ae85-817a6fd5b4ff"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
+  </si>
+  <si>
+    <t>FQ42010</t>
+  </si>
+  <si>
+    <t>FQ12011</t>
+  </si>
+  <si>
+    <t>FQ22011</t>
   </si>
   <si>
     <t>FQ32011</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,34 +853,34 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>100.776</v>
+        <v>42.247</v>
       </c>
       <c r="D2">
-        <v>367.82400000000001</v>
+        <v>190.13399999999999</v>
       </c>
       <c r="E2">
-        <v>185.946</v>
+        <v>76.492999999999995</v>
       </c>
       <c r="F2">
-        <v>216.39699999999999</v>
+        <v>101.622</v>
       </c>
       <c r="G2">
-        <v>1738.444</v>
+        <v>282.94099999999997</v>
       </c>
       <c r="H2">
-        <v>2828.7260000000001</v>
+        <v>1059.78</v>
       </c>
       <c r="I2">
-        <v>66.069999999999993</v>
+        <v>123.539</v>
       </c>
       <c r="J2">
-        <v>345.58100000000002</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -772,78 +892,78 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>299.935</v>
+        <v>249.58500000000001</v>
       </c>
       <c r="O2">
-        <v>1178.7809999999999</v>
+        <v>269.75599999999997</v>
       </c>
       <c r="P2">
-        <v>345.58100000000002</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>76.894999999999996</v>
+        <v>-37</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="T2">
-        <v>1649.9449999999999</v>
+        <v>790.024</v>
       </c>
       <c r="U2">
-        <v>500.61599999999999</v>
+        <v>78.802000000000007</v>
       </c>
       <c r="V2">
-        <v>138.67699999999999</v>
+        <v>103.54</v>
       </c>
       <c r="W2">
-        <v>-129.447</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>-99.129000000000005</v>
+        <v>2.2639999999999998</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>82.805000000000007</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>100.776</v>
+        <v>42.247</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>125.52800000000001</v>
+        <v>12.222</v>
       </c>
       <c r="D3">
-        <v>379.98500000000001</v>
+        <v>153.36600000000001</v>
       </c>
       <c r="E3">
-        <v>179.00200000000001</v>
+        <v>75.775000000000006</v>
       </c>
       <c r="F3">
-        <v>225.59100000000001</v>
+        <v>76.563999999999993</v>
       </c>
       <c r="G3">
-        <v>1774.9829999999999</v>
+        <v>371.55900000000003</v>
       </c>
       <c r="H3">
-        <v>2968.058</v>
+        <v>1161.3489999999999</v>
       </c>
       <c r="I3">
-        <v>68.433000000000007</v>
+        <v>57.652000000000001</v>
       </c>
       <c r="J3">
-        <v>347.334</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -855,78 +975,78 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>340.31599999999997</v>
+        <v>194.62299999999999</v>
       </c>
       <c r="O3">
-        <v>1155.6199999999999</v>
+        <v>218.501</v>
       </c>
       <c r="P3">
-        <v>347.334</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>203.30799999999999</v>
+        <v>24.064</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="S3">
-        <v>6970</v>
+        <v>3011</v>
       </c>
       <c r="T3">
-        <v>1812.4380000000001</v>
+        <v>942.84799999999996</v>
       </c>
       <c r="U3">
-        <v>703.92399999999998</v>
+        <v>129.90899999999999</v>
       </c>
       <c r="V3">
-        <v>152.53700000000001</v>
+        <v>-28.416</v>
       </c>
       <c r="W3">
-        <v>-3.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>21.204000000000001</v>
+        <v>87.518000000000001</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>67.542000000000002</v>
+        <v>-0.33200000000000002</v>
       </c>
       <c r="AA3">
-        <v>125.52800000000001</v>
+        <v>12.222</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>99.293000000000006</v>
+        <v>21.773</v>
       </c>
       <c r="D4">
-        <v>374.50700000000001</v>
+        <v>138.89400000000001</v>
       </c>
       <c r="E4">
-        <v>194.65199999999999</v>
+        <v>66.313999999999993</v>
       </c>
       <c r="F4">
-        <v>219.74799999999999</v>
+        <v>69.406000000000006</v>
       </c>
       <c r="G4">
-        <v>2095.6869999999999</v>
+        <v>367.81200000000001</v>
       </c>
       <c r="H4">
-        <v>3029.299</v>
+        <v>1142.068</v>
       </c>
       <c r="I4">
-        <v>67.528000000000006</v>
+        <v>34.585000000000001</v>
       </c>
       <c r="J4">
-        <v>349.10899999999998</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -938,78 +1058,78 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>328.08300000000003</v>
+        <v>146.101</v>
       </c>
       <c r="O4">
-        <v>1150.077</v>
+        <v>169.99700000000001</v>
       </c>
       <c r="P4">
-        <v>349.10899999999998</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>-52.540999999999997</v>
+        <v>8.51</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>1879.222</v>
+        <v>972.07100000000003</v>
       </c>
       <c r="U4">
-        <v>651.38300000000004</v>
+        <v>138.41900000000001</v>
       </c>
       <c r="V4">
-        <v>83.305000000000007</v>
+        <v>16.076000000000001</v>
       </c>
       <c r="W4">
-        <v>-65.900000000000006</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>-47.243000000000002</v>
+        <v>4.4379999999999997</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>-60.408000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>99.293000000000006</v>
+        <v>21.773</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>79.287000000000006</v>
+        <v>23.148</v>
       </c>
       <c r="D5">
-        <v>340.60199999999998</v>
+        <v>141.66200000000001</v>
       </c>
       <c r="E5">
-        <v>140.887</v>
+        <v>69.024000000000001</v>
       </c>
       <c r="F5">
-        <v>196.703</v>
+        <v>70.869</v>
       </c>
       <c r="G5">
-        <v>1933.376</v>
+        <v>412.88</v>
       </c>
       <c r="H5">
-        <v>3033.7489999999998</v>
+        <v>1177.374</v>
       </c>
       <c r="I5">
-        <v>57.792000000000002</v>
+        <v>35.877000000000002</v>
       </c>
       <c r="J5">
-        <v>351.37099999999998</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1021,81 +1141,81 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>294.15300000000002</v>
+        <v>139</v>
       </c>
       <c r="O5">
-        <v>1129.81</v>
+        <v>163.29300000000001</v>
       </c>
       <c r="P5">
-        <v>351.37099999999998</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>23.745999999999999</v>
+        <v>32.723999999999997</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>1903.9390000000001</v>
+        <v>1014.081</v>
       </c>
       <c r="U5">
-        <v>675.12900000000002</v>
+        <v>171.143</v>
       </c>
       <c r="V5">
-        <v>154.75399999999999</v>
+        <v>38.082000000000001</v>
       </c>
       <c r="W5">
-        <v>-66.206000000000003</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>-58.793999999999997</v>
+        <v>12.504</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>-42.862000000000002</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>79.287000000000006</v>
+        <v>23.148</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>77.489000000000004</v>
+        <v>23.577000000000002</v>
       </c>
       <c r="D6">
-        <v>329.15600000000001</v>
+        <v>141.857</v>
       </c>
       <c r="E6">
-        <v>147.624</v>
+        <v>64.155000000000001</v>
       </c>
       <c r="F6">
-        <v>189.38800000000001</v>
+        <v>71.138999999999996</v>
       </c>
       <c r="G6">
-        <v>1830.08</v>
+        <v>478.62900000000002</v>
       </c>
       <c r="H6">
-        <v>3021.1509999999998</v>
+        <v>1220.547</v>
       </c>
       <c r="I6">
-        <v>40.039000000000001</v>
+        <v>31.292999999999999</v>
       </c>
       <c r="J6">
-        <v>353.34100000000001</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>2.1379999999999999</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1104,78 +1224,78 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>248.566</v>
+        <v>126.199</v>
       </c>
       <c r="O6">
-        <v>1079.846</v>
+        <v>156.68199999999999</v>
       </c>
       <c r="P6">
-        <v>353.34100000000001</v>
+        <v>2.1379999999999999</v>
       </c>
       <c r="Q6">
-        <v>-69.403999999999996</v>
+        <v>74.251999999999995</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="T6">
-        <v>1941.3050000000001</v>
+        <v>1063.865</v>
       </c>
       <c r="U6">
-        <v>605.72500000000002</v>
+        <v>245.39500000000001</v>
       </c>
       <c r="V6">
-        <v>55.939</v>
+        <v>57.366999999999997</v>
       </c>
       <c r="W6">
-        <v>-66.813000000000002</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>-52.030999999999999</v>
+        <v>22.247</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>-65.611000000000004</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>77.489000000000004</v>
+        <v>23.577000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>80.635999999999996</v>
+        <v>26.315999999999999</v>
       </c>
       <c r="D7">
-        <v>338.911</v>
+        <v>148.84100000000001</v>
       </c>
       <c r="E7">
-        <v>168.672</v>
+        <v>80.399000000000001</v>
       </c>
       <c r="F7">
-        <v>191.74600000000001</v>
+        <v>75.322000000000003</v>
       </c>
       <c r="G7">
-        <v>2015.8610000000001</v>
+        <v>549.17600000000004</v>
       </c>
       <c r="H7">
-        <v>3083.7759999999998</v>
+        <v>1275.5999999999999</v>
       </c>
       <c r="I7">
-        <v>50.286999999999999</v>
+        <v>38.292000000000002</v>
       </c>
       <c r="J7">
-        <v>355.05</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1187,78 +1307,78 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>247.87299999999999</v>
+        <v>167.59800000000001</v>
       </c>
       <c r="O7">
-        <v>1093.1030000000001</v>
+        <v>199.821</v>
       </c>
       <c r="P7">
-        <v>355.05</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>30.03</v>
+        <v>-59.335999999999999</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="S7">
-        <v>6923</v>
+        <v>3041</v>
       </c>
       <c r="T7">
-        <v>1990.673</v>
+        <v>1075.779</v>
       </c>
       <c r="U7">
-        <v>635.755</v>
+        <v>173.59700000000001</v>
       </c>
       <c r="V7">
-        <v>102.46</v>
+        <v>67.301000000000002</v>
       </c>
       <c r="W7">
-        <v>-67.259</v>
+        <v>0</v>
       </c>
       <c r="X7">
-        <v>-50.076999999999998</v>
+        <v>-23.123999999999999</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>18.756</v>
+        <v>-94.587999999999994</v>
       </c>
       <c r="AA7">
-        <v>80.635999999999996</v>
+        <v>26.315999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>78.709999999999994</v>
+        <v>9.3160000000000007</v>
       </c>
       <c r="D8">
-        <v>352.13400000000001</v>
+        <v>157.54400000000001</v>
       </c>
       <c r="E8">
-        <v>173.017</v>
+        <v>82.864999999999995</v>
       </c>
       <c r="F8">
-        <v>204.797</v>
+        <v>82.367000000000004</v>
       </c>
       <c r="G8">
-        <v>2229.2979999999998</v>
+        <v>572.95500000000004</v>
       </c>
       <c r="H8">
-        <v>3144.84</v>
+        <v>1334.7090000000001</v>
       </c>
       <c r="I8">
-        <v>52.646000000000001</v>
+        <v>37.603999999999999</v>
       </c>
       <c r="J8">
-        <v>357.35500000000002</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1270,78 +1390,78 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>249.989</v>
+        <v>187.36799999999999</v>
       </c>
       <c r="O8">
-        <v>1126.8499999999999</v>
+        <v>219.684</v>
       </c>
       <c r="P8">
-        <v>357.35500000000002</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>144.09299999999999</v>
+        <v>-111.077</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>2017.99</v>
+        <v>1115.0250000000001</v>
       </c>
       <c r="U8">
-        <v>779.84799999999996</v>
+        <v>284.04500000000002</v>
       </c>
       <c r="V8">
-        <v>128.971</v>
+        <v>71.262</v>
       </c>
       <c r="W8">
-        <v>-67.748999999999995</v>
+        <v>0</v>
       </c>
       <c r="X8">
-        <v>-62.768000000000001</v>
+        <v>8.0739999999999998</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>110.309</v>
+        <v>-114.47499999999999</v>
       </c>
       <c r="AA8">
-        <v>78.709999999999994</v>
+        <v>9.3160000000000007</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>-21.184000000000001</v>
+        <v>9.4960000000000004</v>
       </c>
       <c r="D9">
-        <v>383.298</v>
+        <v>166.77799999999999</v>
       </c>
       <c r="E9">
-        <v>226.98099999999999</v>
+        <v>87.635999999999996</v>
       </c>
       <c r="F9">
-        <v>216.89500000000001</v>
+        <v>90.3</v>
       </c>
       <c r="G9">
-        <v>2289.2779999999998</v>
+        <v>515.72</v>
       </c>
       <c r="H9">
-        <v>3888.3760000000002</v>
+        <v>1345.9829999999999</v>
       </c>
       <c r="I9">
-        <v>82.265000000000001</v>
+        <v>33.962000000000003</v>
       </c>
       <c r="J9">
-        <v>959.65599999999995</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1353,78 +1473,78 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>325.47300000000001</v>
+        <v>183.51900000000001</v>
       </c>
       <c r="O9">
-        <v>1924.278</v>
+        <v>215.44900000000001</v>
       </c>
       <c r="P9">
-        <v>959.65599999999995</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>-343.113</v>
+        <v>-16.87</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>1964.098</v>
+        <v>1130.5340000000001</v>
       </c>
       <c r="U9">
-        <v>436.73500000000001</v>
+        <v>141.328</v>
       </c>
       <c r="V9">
-        <v>63.3</v>
+        <v>57.256999999999998</v>
       </c>
       <c r="W9">
-        <v>-68.146000000000001</v>
+        <v>0</v>
       </c>
       <c r="X9">
-        <v>543.303</v>
+        <v>1.391</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>-202.822</v>
+        <v>125.84699999999999</v>
       </c>
       <c r="AA9">
-        <v>-21.184000000000001</v>
+        <v>9.4960000000000004</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>10.173</v>
+        <v>36.381999999999998</v>
       </c>
       <c r="D10">
-        <v>416.04700000000003</v>
+        <v>167.47399999999999</v>
       </c>
       <c r="E10">
-        <v>174.65600000000001</v>
+        <v>92.263000000000005</v>
       </c>
       <c r="F10">
-        <v>231.22800000000001</v>
+        <v>92.894000000000005</v>
       </c>
       <c r="G10">
-        <v>2296.5830000000001</v>
+        <v>586.87599999999998</v>
       </c>
       <c r="H10">
-        <v>3843.5239999999999</v>
+        <v>1410.453</v>
       </c>
       <c r="I10">
-        <v>54.051000000000002</v>
+        <v>36.621000000000002</v>
       </c>
       <c r="J10">
-        <v>971.40899999999999</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1436,78 +1556,78 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>296.279</v>
+        <v>197.53</v>
       </c>
       <c r="O10">
-        <v>1916.4380000000001</v>
+        <v>235.20500000000001</v>
       </c>
       <c r="P10">
-        <v>971.40899999999999</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>28.558</v>
+        <v>2.6859999999999999</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="S10">
         <v>0</v>
       </c>
       <c r="T10">
-        <v>1927.086</v>
+        <v>1175.248</v>
       </c>
       <c r="U10">
-        <v>465.29300000000001</v>
+        <v>198.23099999999999</v>
       </c>
       <c r="V10">
-        <v>139.21100000000001</v>
+        <v>74.98</v>
       </c>
       <c r="W10">
-        <v>-68.697000000000003</v>
+        <v>-4.0609999999999999</v>
       </c>
       <c r="X10">
-        <v>-52.353999999999999</v>
+        <v>2.9289999999999998</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>-46.508000000000003</v>
+        <v>-54.216999999999999</v>
       </c>
       <c r="AA10">
-        <v>10.173</v>
+        <v>36.381999999999998</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>59.69</v>
+        <v>33.037999999999997</v>
       </c>
       <c r="D11">
-        <v>430.14400000000001</v>
+        <v>159.666</v>
       </c>
       <c r="E11">
-        <v>227.70500000000001</v>
+        <v>94.65</v>
       </c>
       <c r="F11">
-        <v>237.63900000000001</v>
+        <v>86.674000000000007</v>
       </c>
       <c r="G11">
-        <v>2236.37</v>
+        <v>609.10900000000004</v>
       </c>
       <c r="H11">
-        <v>3851.4050000000002</v>
+        <v>1428.2750000000001</v>
       </c>
       <c r="I11">
-        <v>75.551000000000002</v>
+        <v>34.143000000000001</v>
       </c>
       <c r="J11">
-        <v>983.38499999999999</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1519,78 +1639,78 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>341.61099999999999</v>
+        <v>215.13</v>
       </c>
       <c r="O11">
-        <v>1917.9349999999999</v>
+        <v>249.32599999999999</v>
       </c>
       <c r="P11">
-        <v>983.38499999999999</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>63.040999999999997</v>
+        <v>5.5730000000000004</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="S11">
-        <v>8003</v>
+        <v>3373</v>
       </c>
       <c r="T11">
-        <v>1933.47</v>
+        <v>1178.9490000000001</v>
       </c>
       <c r="U11">
-        <v>528.33399999999995</v>
+        <v>53.908999999999999</v>
       </c>
       <c r="V11">
-        <v>127.883</v>
+        <v>56.688000000000002</v>
       </c>
       <c r="W11">
-        <v>-69.23</v>
+        <v>-4.0679999999999996</v>
       </c>
       <c r="X11">
-        <v>-46.011000000000003</v>
+        <v>-15.515000000000001</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>-3.3769999999999998</v>
+        <v>-12.707000000000001</v>
       </c>
       <c r="AA11">
-        <v>59.69</v>
+        <v>33.037999999999997</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>78.578999999999994</v>
+        <v>13.47</v>
       </c>
       <c r="D12">
-        <v>462.79199999999997</v>
+        <v>161.28299999999999</v>
       </c>
       <c r="E12">
-        <v>229.76400000000001</v>
+        <v>87.388999999999996</v>
       </c>
       <c r="F12">
-        <v>266.57400000000001</v>
+        <v>87.275999999999996</v>
       </c>
       <c r="G12">
-        <v>1615.6969999999999</v>
+        <v>661.85799999999995</v>
       </c>
       <c r="H12">
-        <v>3883.5749999999998</v>
+        <v>1432.395</v>
       </c>
       <c r="I12">
-        <v>77.692999999999998</v>
+        <v>26.076000000000001</v>
       </c>
       <c r="J12">
-        <v>974.25</v>
+        <v>0</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1599,84 +1719,84 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>-650.04399999999998</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>351.66399999999999</v>
+        <v>209.43799999999999</v>
       </c>
       <c r="O12">
-        <v>1929.3150000000001</v>
+        <v>237.964</v>
       </c>
       <c r="P12">
-        <v>974.25</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>-125.10299999999999</v>
+        <v>-6.26</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>1954.26</v>
+        <v>1194.431</v>
       </c>
       <c r="U12">
-        <v>403.23099999999999</v>
+        <v>47.649000000000001</v>
       </c>
       <c r="V12">
-        <v>167.37200000000001</v>
+        <v>67.805000000000007</v>
       </c>
       <c r="W12">
-        <v>-69.682000000000002</v>
+        <v>-4.8929999999999998</v>
       </c>
       <c r="X12">
-        <v>-80.340999999999994</v>
+        <v>-1.3839999999999999</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>-196.78700000000001</v>
+        <v>-62.350999999999999</v>
       </c>
       <c r="AA12">
-        <v>78.578999999999994</v>
+        <v>13.47</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>99.805999999999997</v>
+        <v>36.103999999999999</v>
       </c>
       <c r="D13">
-        <v>492.66899999999998</v>
+        <v>168.48599999999999</v>
       </c>
       <c r="E13">
-        <v>228.499</v>
+        <v>90.197000000000003</v>
       </c>
       <c r="F13">
-        <v>288.863</v>
+        <v>91.194000000000003</v>
       </c>
       <c r="G13">
-        <v>1820.9059999999999</v>
+        <v>739.721</v>
       </c>
       <c r="H13">
-        <v>3965.1509999999998</v>
+        <v>1492.2909999999999</v>
       </c>
       <c r="I13">
-        <v>77.768000000000001</v>
+        <v>27.968</v>
       </c>
       <c r="J13">
-        <v>997.91200000000003</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>8.375</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1685,81 +1805,81 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>338.89299999999997</v>
+        <v>215.53299999999999</v>
       </c>
       <c r="O13">
-        <v>1946.6120000000001</v>
+        <v>242.05600000000001</v>
       </c>
       <c r="P13">
-        <v>1006.287</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>-59.029000000000003</v>
+        <v>-3.1869999999999998</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>2018.539</v>
+        <v>1250.2349999999999</v>
       </c>
       <c r="U13">
-        <v>344.202</v>
+        <v>44.462000000000003</v>
       </c>
       <c r="V13">
-        <v>157.55099999999999</v>
+        <v>77.295000000000002</v>
       </c>
       <c r="W13">
-        <v>-70.085999999999999</v>
+        <v>-4.9189999999999996</v>
       </c>
       <c r="X13">
-        <v>-39.624000000000002</v>
+        <v>11.922000000000001</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>-148.172</v>
+        <v>-81.462000000000003</v>
       </c>
       <c r="AA13">
-        <v>99.805999999999997</v>
+        <v>36.103999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>105.401</v>
+        <v>40.843000000000004</v>
       </c>
       <c r="D14">
-        <v>482.37200000000001</v>
+        <v>177.96700000000001</v>
       </c>
       <c r="E14">
-        <v>222.17099999999999</v>
+        <v>92.082999999999998</v>
       </c>
       <c r="F14">
-        <v>284.52</v>
+        <v>97.019000000000005</v>
       </c>
       <c r="G14">
-        <v>1969.028</v>
+        <v>838.74099999999999</v>
       </c>
       <c r="H14">
-        <v>4003.1080000000002</v>
+        <v>1581.538</v>
       </c>
       <c r="I14">
-        <v>62.75</v>
+        <v>33.944000000000003</v>
       </c>
       <c r="J14">
-        <v>1005.312</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>14.159000000000001</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1768,78 +1888,78 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>316.39999999999998</v>
+        <v>233.54400000000001</v>
       </c>
       <c r="O14">
-        <v>1928</v>
+        <v>260.94499999999999</v>
       </c>
       <c r="P14">
-        <v>1019.471</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>30.898</v>
+        <v>13.712</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="S14">
         <v>0</v>
       </c>
       <c r="T14">
-        <v>2075.1080000000002</v>
+        <v>1320.5930000000001</v>
       </c>
       <c r="U14">
-        <v>375.1</v>
+        <v>58.173999999999999</v>
       </c>
       <c r="V14">
-        <v>148.30000000000001</v>
+        <v>102.864</v>
       </c>
       <c r="W14">
-        <v>-70.554000000000002</v>
+        <v>-6.2229999999999999</v>
       </c>
       <c r="X14">
-        <v>-58.133000000000003</v>
+        <v>14.615</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>-21.414999999999999</v>
+        <v>-85.850999999999999</v>
       </c>
       <c r="AA14">
-        <v>105.401</v>
+        <v>40.843000000000004</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>111.495</v>
+        <v>46.844999999999999</v>
       </c>
       <c r="D15">
-        <v>493.38400000000001</v>
+        <v>191.524</v>
       </c>
       <c r="E15">
-        <v>240.465</v>
+        <v>107.738</v>
       </c>
       <c r="F15">
-        <v>273.38600000000002</v>
+        <v>106.22499999999999</v>
       </c>
       <c r="G15">
-        <v>1969.3989999999999</v>
+        <v>883.94500000000005</v>
       </c>
       <c r="H15">
-        <v>4067.63</v>
+        <v>1622.143</v>
       </c>
       <c r="I15">
-        <v>74.05</v>
+        <v>61.183999999999997</v>
       </c>
       <c r="J15">
-        <v>1003.258</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1851,78 +1971,78 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>336.07900000000001</v>
+        <v>270.05099999999999</v>
       </c>
       <c r="O15">
-        <v>1932.1690000000001</v>
+        <v>301.62599999999998</v>
       </c>
       <c r="P15">
-        <v>1020.758</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>91.503</v>
+        <v>47.16</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="S15">
-        <v>8604</v>
+        <v>3678</v>
       </c>
       <c r="T15">
-        <v>2135.4609999999998</v>
+        <v>1320.5170000000001</v>
       </c>
       <c r="U15">
-        <v>466.60300000000001</v>
+        <v>105.334</v>
       </c>
       <c r="V15">
-        <v>203.34100000000001</v>
+        <v>95.116</v>
       </c>
       <c r="W15">
-        <v>-70.882000000000005</v>
+        <v>-7.2859999999999996</v>
       </c>
       <c r="X15">
-        <v>-56.917999999999999</v>
+        <v>-49.188000000000002</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>-19.812000000000001</v>
+        <v>23.922000000000001</v>
       </c>
       <c r="AA15">
-        <v>111.495</v>
+        <v>46.844999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>89.909000000000006</v>
+        <v>43.798999999999999</v>
       </c>
       <c r="D16">
-        <v>528.87599999999998</v>
+        <v>212.77500000000001</v>
       </c>
       <c r="E16">
-        <v>284.399</v>
+        <v>109.473</v>
       </c>
       <c r="F16">
-        <v>314.31900000000002</v>
+        <v>121.459</v>
       </c>
       <c r="G16">
-        <v>2450.3510000000001</v>
+        <v>921.83500000000004</v>
       </c>
       <c r="H16">
-        <v>4501.7430000000004</v>
+        <v>1644.7090000000001</v>
       </c>
       <c r="I16">
-        <v>79.888999999999996</v>
+        <v>37.759</v>
       </c>
       <c r="J16">
-        <v>1335.6780000000001</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1931,84 +2051,84 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>-174.523</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>359.69</v>
+        <v>261.69600000000003</v>
       </c>
       <c r="O16">
-        <v>2332.098</v>
+        <v>289.58</v>
       </c>
       <c r="P16">
-        <v>1353.1780000000001</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>151.167</v>
+        <v>-18.448</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>2169.645</v>
+        <v>1355.1289999999999</v>
       </c>
       <c r="U16">
-        <v>617.77</v>
+        <v>86.885999999999996</v>
       </c>
       <c r="V16">
-        <v>165.78800000000001</v>
+        <v>104.47499999999999</v>
       </c>
       <c r="W16">
-        <v>-71.201999999999998</v>
+        <v>-8.266</v>
       </c>
       <c r="X16">
-        <v>257.80700000000002</v>
+        <v>-19.693999999999999</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>148.697</v>
+        <v>-90.417000000000002</v>
       </c>
       <c r="AA16">
-        <v>89.909000000000006</v>
+        <v>43.798999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>93.641000000000005</v>
+        <v>60.442999999999998</v>
       </c>
       <c r="D17">
-        <v>546.24300000000005</v>
+        <v>220.69399999999999</v>
       </c>
       <c r="E17">
-        <v>285.154</v>
+        <v>116.354</v>
       </c>
       <c r="F17">
-        <v>320.154</v>
+        <v>126.377</v>
       </c>
       <c r="G17">
-        <v>1978.9649999999999</v>
+        <v>986.25699999999995</v>
       </c>
       <c r="H17">
-        <v>4610.6270000000004</v>
+        <v>1698.328</v>
       </c>
       <c r="I17">
-        <v>94.402000000000001</v>
+        <v>38.28</v>
       </c>
       <c r="J17">
-        <v>1323.8710000000001</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>42.274999999999999</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -2017,81 +2137,81 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>385.48399999999998</v>
+        <v>292.952</v>
       </c>
       <c r="O17">
-        <v>2358.4189999999999</v>
+        <v>318.41300000000001</v>
       </c>
       <c r="P17">
-        <v>1341.3710000000001</v>
+        <v>42.274999999999999</v>
       </c>
       <c r="Q17">
-        <v>-136.33099999999999</v>
+        <v>-11.661</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>2252.2080000000001</v>
+        <v>1379.915</v>
       </c>
       <c r="U17">
-        <v>481.43900000000002</v>
+        <v>75.224999999999994</v>
       </c>
       <c r="V17">
-        <v>192.04599999999999</v>
+        <v>80.489999999999995</v>
       </c>
       <c r="W17">
-        <v>-71.441999999999993</v>
+        <v>-9.4730000000000008</v>
       </c>
       <c r="X17">
-        <v>-80.412999999999997</v>
+        <v>1.3180000000000001</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>47.741999999999997</v>
+        <v>-73.304000000000002</v>
       </c>
       <c r="AA17">
-        <v>93.641000000000005</v>
+        <v>60.442999999999998</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>86.057000000000002</v>
+        <v>53.14</v>
       </c>
       <c r="D18">
-        <v>528.71</v>
+        <v>205.38399999999999</v>
       </c>
       <c r="E18">
-        <v>239.52600000000001</v>
+        <v>101.28100000000001</v>
       </c>
       <c r="F18">
-        <v>306.15899999999999</v>
+        <v>116.788</v>
       </c>
       <c r="G18">
-        <v>1783.479</v>
+        <v>1082.671</v>
       </c>
       <c r="H18">
-        <v>4628.9170000000004</v>
+        <v>1785.3130000000001</v>
       </c>
       <c r="I18">
-        <v>76.933000000000007</v>
+        <v>40.308999999999997</v>
       </c>
       <c r="J18">
-        <v>1342.095</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>44.252000000000002</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -2100,81 +2220,81 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>353.08600000000001</v>
+        <v>304.262</v>
       </c>
       <c r="O18">
-        <v>2346.6390000000001</v>
+        <v>345.87299999999999</v>
       </c>
       <c r="P18">
-        <v>1359.595</v>
+        <v>44.252000000000002</v>
       </c>
       <c r="Q18">
-        <v>-25.1</v>
+        <v>0.95799999999999996</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="S18">
         <v>0</v>
       </c>
       <c r="T18">
-        <v>2282.2779999999998</v>
+        <v>1439.44</v>
       </c>
       <c r="U18">
-        <v>456.339</v>
+        <v>76.183000000000007</v>
       </c>
       <c r="V18">
-        <v>184.83799999999999</v>
+        <v>110.483</v>
       </c>
       <c r="W18">
-        <v>-71.787000000000006</v>
+        <v>-10.752000000000001</v>
       </c>
       <c r="X18">
-        <v>-53.372</v>
+        <v>3.2639999999999998</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>-97.14</v>
+        <v>-91.581000000000003</v>
       </c>
       <c r="AA18">
-        <v>86.057000000000002</v>
+        <v>53.14</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>99.402000000000001</v>
+        <v>56.402999999999999</v>
       </c>
       <c r="D19">
-        <v>543.20699999999999</v>
+        <v>208.083</v>
       </c>
       <c r="E19">
-        <v>267.22300000000001</v>
+        <v>112.872</v>
       </c>
       <c r="F19">
-        <v>313.63200000000001</v>
+        <v>119.351</v>
       </c>
       <c r="G19">
-        <v>2664.6170000000002</v>
+        <v>1075.348</v>
       </c>
       <c r="H19">
-        <v>4780.7129999999997</v>
+        <v>1817.5540000000001</v>
       </c>
       <c r="I19">
-        <v>86.866</v>
+        <v>34.328000000000003</v>
       </c>
       <c r="J19">
-        <v>1826.8579999999999</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>45.454000000000001</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -2183,164 +2303,164 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>353.97199999999998</v>
+        <v>306.66500000000002</v>
       </c>
       <c r="O19">
-        <v>2719.6869999999999</v>
+        <v>331.82</v>
       </c>
       <c r="P19">
-        <v>1826.8579999999999</v>
+        <v>45.454000000000001</v>
       </c>
       <c r="Q19">
-        <v>151.476</v>
+        <v>-7.4530000000000003</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="S19">
-        <v>9449</v>
+        <v>3943</v>
       </c>
       <c r="T19">
-        <v>2061.0259999999998</v>
+        <v>1485.7339999999999</v>
       </c>
       <c r="U19">
-        <v>607.81500000000005</v>
+        <v>68.73</v>
       </c>
       <c r="V19">
-        <v>178.51</v>
+        <v>57.262</v>
       </c>
       <c r="W19">
-        <v>-72.046999999999997</v>
+        <v>-14.506</v>
       </c>
       <c r="X19">
-        <v>-25.474</v>
+        <v>-3.4729999999999999</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>38.448</v>
+        <v>-53.875</v>
       </c>
       <c r="AA19">
-        <v>99.402000000000001</v>
+        <v>56.402999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>130.667</v>
+        <v>61.024000000000001</v>
       </c>
       <c r="D20">
-        <v>533.952</v>
+        <v>218.52699999999999</v>
       </c>
       <c r="E20">
-        <v>273.49799999999999</v>
+        <v>129.989</v>
       </c>
       <c r="F20">
-        <v>309.017</v>
+        <v>127.505</v>
       </c>
       <c r="G20">
-        <v>2255.614</v>
+        <v>1162.6099999999999</v>
       </c>
       <c r="H20">
-        <v>4856.9849999999997</v>
+        <v>1892.059</v>
       </c>
       <c r="I20">
-        <v>93.655000000000001</v>
+        <v>33.189</v>
       </c>
       <c r="J20">
-        <v>1864.739</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>45.454000000000001</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>-110.166</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>372.30799999999999</v>
+        <v>317.23099999999999</v>
       </c>
       <c r="O20">
-        <v>2758.1030000000001</v>
+        <v>338.74299999999999</v>
       </c>
       <c r="P20">
-        <v>1864.739</v>
+        <v>45.454000000000001</v>
       </c>
       <c r="Q20">
-        <v>-44.268000000000001</v>
+        <v>72.641999999999996</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>2098.8820000000001</v>
+        <v>1553.316</v>
       </c>
       <c r="U20">
-        <v>563.54700000000003</v>
+        <v>141.37200000000001</v>
       </c>
       <c r="V20">
-        <v>181.52799999999999</v>
+        <v>93.997</v>
       </c>
       <c r="W20">
-        <v>-72.331000000000003</v>
+        <v>-19.795000000000002</v>
       </c>
       <c r="X20">
-        <v>-38.606999999999999</v>
+        <v>-3.0960000000000001</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>-134.38800000000001</v>
+        <v>-2.7090000000000001</v>
       </c>
       <c r="AA20">
-        <v>130.667</v>
+        <v>61.024000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>64.899000000000001</v>
+        <v>65.653000000000006</v>
       </c>
       <c r="D21">
-        <v>541.39099999999996</v>
+        <v>227.298</v>
       </c>
       <c r="E21">
-        <v>277.58199999999999</v>
+        <v>120.087</v>
       </c>
       <c r="F21">
-        <v>309.95</v>
+        <v>134.55600000000001</v>
       </c>
       <c r="G21">
-        <v>2778.8870000000002</v>
+        <v>1245.2190000000001</v>
       </c>
       <c r="H21">
-        <v>5786.3090000000002</v>
+        <v>1958.095</v>
       </c>
       <c r="I21">
-        <v>72.361999999999995</v>
+        <v>32.628999999999998</v>
       </c>
       <c r="J21">
-        <v>2687.8739999999998</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>45.454000000000001</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -2349,81 +2469,81 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>371.77600000000001</v>
+        <v>327.59300000000002</v>
       </c>
       <c r="O21">
-        <v>3656.9279999999999</v>
+        <v>345.45499999999998</v>
       </c>
       <c r="P21">
-        <v>2687.8739999999998</v>
+        <v>45.454000000000001</v>
       </c>
       <c r="Q21">
-        <v>-24.469000000000001</v>
+        <v>-31.292000000000002</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>2129.3809999999999</v>
+        <v>1612.64</v>
       </c>
       <c r="U21">
-        <v>539.07799999999997</v>
+        <v>110.08</v>
       </c>
       <c r="V21">
-        <v>149.886</v>
+        <v>109.06399999999999</v>
       </c>
       <c r="W21">
-        <v>-72.685000000000002</v>
+        <v>-26.172000000000001</v>
       </c>
       <c r="X21">
-        <v>366.32499999999999</v>
+        <v>-6.2549999999999999</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>-179.26300000000001</v>
+        <v>-123.501</v>
       </c>
       <c r="AA21">
-        <v>64.899000000000001</v>
+        <v>65.653000000000006</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>61.210999999999999</v>
+        <v>40.124000000000002</v>
       </c>
       <c r="D22">
-        <v>540.34400000000005</v>
+        <v>234.89599999999999</v>
       </c>
       <c r="E22">
-        <v>243.864</v>
+        <v>111.886</v>
       </c>
       <c r="F22">
-        <v>310.51799999999997</v>
+        <v>140.27000000000001</v>
       </c>
       <c r="G22">
-        <v>1632.721</v>
+        <v>1302.1859999999999</v>
       </c>
       <c r="H22">
-        <v>5446.5529999999999</v>
+        <v>2006.47</v>
       </c>
       <c r="I22">
-        <v>69.058999999999997</v>
+        <v>36.356000000000002</v>
       </c>
       <c r="J22">
-        <v>2406.4740000000002</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>45.454000000000001</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -2432,81 +2552,81 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>343.91399999999999</v>
+        <v>337.755</v>
       </c>
       <c r="O22">
-        <v>3320.2089999999998</v>
+        <v>357.339</v>
       </c>
       <c r="P22">
-        <v>2406.4740000000002</v>
+        <v>45.454000000000001</v>
       </c>
       <c r="Q22">
-        <v>-207.62700000000001</v>
+        <v>47.372</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="S22">
         <v>0</v>
       </c>
       <c r="T22">
-        <v>2126.3440000000001</v>
+        <v>1649.1310000000001</v>
       </c>
       <c r="U22">
-        <v>331.45100000000002</v>
+        <v>157.452</v>
       </c>
       <c r="V22">
-        <v>210.477</v>
+        <v>119.998</v>
       </c>
       <c r="W22">
-        <v>-72.923000000000002</v>
+        <v>-33.645000000000003</v>
       </c>
       <c r="X22">
-        <v>-364.19600000000003</v>
+        <v>-10.08</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>-33.058999999999997</v>
+        <v>-44.994</v>
       </c>
       <c r="AA22">
-        <v>61.210999999999999</v>
+        <v>40.124000000000002</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>67.355000000000004</v>
+        <v>75.567999999999998</v>
       </c>
       <c r="D23">
-        <v>557.64700000000005</v>
+        <v>247.172</v>
       </c>
       <c r="E23">
-        <v>286.47300000000001</v>
+        <v>139.041</v>
       </c>
       <c r="F23">
-        <v>320.97899999999998</v>
+        <v>148.54599999999999</v>
       </c>
       <c r="G23">
-        <v>3096.7130000000002</v>
+        <v>1118.829</v>
       </c>
       <c r="H23">
-        <v>5537.8829999999998</v>
+        <v>2350.596</v>
       </c>
       <c r="I23">
-        <v>79.311999999999998</v>
+        <v>50.847000000000001</v>
       </c>
       <c r="J23">
-        <v>2453.4050000000002</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>268.95400000000001</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -2515,164 +2635,164 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>382.00900000000001</v>
+        <v>608.96900000000005</v>
       </c>
       <c r="O23">
-        <v>3386.9639999999999</v>
+        <v>624.40700000000004</v>
       </c>
       <c r="P23">
-        <v>2453.4050000000002</v>
+        <v>268.95400000000001</v>
       </c>
       <c r="Q23">
-        <v>1761.3</v>
+        <v>407.82100000000003</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="S23">
-        <v>9766</v>
+        <v>4336</v>
       </c>
       <c r="T23">
-        <v>2150.9189999999999</v>
+        <v>1726.1890000000001</v>
       </c>
       <c r="U23">
-        <v>2092.7510000000002</v>
+        <v>565.27300000000002</v>
       </c>
       <c r="V23">
-        <v>202.59200000000001</v>
+        <v>114.264</v>
       </c>
       <c r="W23">
-        <v>-73.147999999999996</v>
+        <v>-40.497</v>
       </c>
       <c r="X23">
-        <v>-23.466000000000001</v>
+        <v>215.25299999999999</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>1599.741</v>
+        <v>112.15</v>
       </c>
       <c r="AA23">
-        <v>67.355000000000004</v>
+        <v>75.567999999999998</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>-113.363</v>
+        <v>76.983999999999995</v>
       </c>
       <c r="D24">
-        <v>799.41099999999994</v>
+        <v>262.55700000000002</v>
       </c>
       <c r="E24">
-        <v>431.37599999999998</v>
+        <v>136.98699999999999</v>
       </c>
       <c r="F24">
-        <v>443.19</v>
+        <v>158.48400000000001</v>
       </c>
       <c r="G24">
-        <v>1672.9880000000001</v>
+        <v>1105.9690000000001</v>
       </c>
       <c r="H24">
-        <v>7358.7560000000003</v>
+        <v>2294.6909999999998</v>
       </c>
       <c r="I24">
-        <v>137.614</v>
+        <v>41.453000000000003</v>
       </c>
       <c r="J24">
-        <v>3336.5039999999999</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>137.5</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>-131.45400000000001</v>
       </c>
       <c r="M24">
-        <v>-602.19500000000005</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>573.28499999999997</v>
+        <v>494.69900000000001</v>
       </c>
       <c r="O24">
-        <v>4826.2070000000003</v>
+        <v>506.88200000000001</v>
       </c>
       <c r="P24">
-        <v>3336.5039999999999</v>
+        <v>137.5</v>
       </c>
       <c r="Q24">
-        <v>-1492.2249999999999</v>
+        <v>-428.61700000000002</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>2532.549</v>
+        <v>1787.809</v>
       </c>
       <c r="U24">
-        <v>600.52599999999995</v>
+        <v>136.65600000000001</v>
       </c>
       <c r="V24">
-        <v>223.96700000000001</v>
+        <v>129.803</v>
       </c>
       <c r="W24">
-        <v>-77.236999999999995</v>
+        <v>-46.064</v>
       </c>
       <c r="X24">
-        <v>580.01499999999999</v>
+        <v>-152.92699999999999</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>470.99400000000003</v>
+        <v>-389.30200000000002</v>
       </c>
       <c r="AA24">
-        <v>-113.363</v>
+        <v>76.983999999999995</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>33.918999999999997</v>
+        <v>79.488</v>
       </c>
       <c r="D25">
-        <v>871.36400000000003</v>
+        <v>267.93400000000003</v>
       </c>
       <c r="E25">
-        <v>447.11099999999999</v>
+        <v>122.691</v>
       </c>
       <c r="F25">
-        <v>494.92099999999999</v>
+        <v>161.96100000000001</v>
       </c>
       <c r="G25">
-        <v>1490.7349999999999</v>
+        <v>948.90099999999995</v>
       </c>
       <c r="H25">
-        <v>7074.3959999999997</v>
+        <v>2291.2600000000002</v>
       </c>
       <c r="I25">
-        <v>131.625</v>
+        <v>41.58</v>
       </c>
       <c r="J25">
-        <v>3105.433</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>80.8</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -2681,81 +2801,81 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>578.803</v>
+        <v>425.70699999999999</v>
       </c>
       <c r="O25">
-        <v>4554.884</v>
+        <v>441.59500000000003</v>
       </c>
       <c r="P25">
-        <v>3105.433</v>
+        <v>80.8</v>
       </c>
       <c r="Q25">
-        <v>-110.538</v>
+        <v>-4.0869999999999997</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>2519.5120000000002</v>
+        <v>1849.665</v>
       </c>
       <c r="U25">
-        <v>489.988</v>
+        <v>132.56899999999999</v>
       </c>
       <c r="V25">
-        <v>222.12299999999999</v>
+        <v>120.932</v>
       </c>
       <c r="W25">
-        <v>-77.64</v>
+        <v>-50.509</v>
       </c>
       <c r="X25">
-        <v>-312.17399999999998</v>
+        <v>-87.466999999999999</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>1.4E-2</v>
+        <v>-19.097000000000001</v>
       </c>
       <c r="AA25">
-        <v>33.918999999999997</v>
+        <v>79.488</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>107.175</v>
+        <v>72.849000000000004</v>
       </c>
       <c r="D26">
-        <v>834.36599999999999</v>
+        <v>251.00399999999999</v>
       </c>
       <c r="E26">
-        <v>470.48599999999999</v>
+        <v>119.583</v>
       </c>
       <c r="F26">
-        <v>477.25900000000001</v>
+        <v>149.71</v>
       </c>
       <c r="G26">
-        <v>1676.75</v>
+        <v>1066.5440000000001</v>
       </c>
       <c r="H26">
-        <v>7144.5810000000001</v>
+        <v>2278.46</v>
       </c>
       <c r="I26">
-        <v>135.16</v>
+        <v>34.741999999999997</v>
       </c>
       <c r="J26">
-        <v>3123.9940000000001</v>
+        <v>0</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>29.5</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -2764,78 +2884,78 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>651.553</v>
+        <v>374.87099999999998</v>
       </c>
       <c r="O26">
-        <v>4577.683</v>
+        <v>388.96800000000002</v>
       </c>
       <c r="P26">
-        <v>3123.9940000000001</v>
+        <v>29.5</v>
       </c>
       <c r="Q26">
-        <v>173.95</v>
+        <v>20.707999999999998</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="S26">
         <v>0</v>
       </c>
       <c r="T26">
-        <v>2566.8980000000001</v>
+        <v>1889.492</v>
       </c>
       <c r="U26">
-        <v>663.93799999999999</v>
+        <v>153.27699999999999</v>
       </c>
       <c r="V26">
-        <v>290.80200000000002</v>
+        <v>107.09</v>
       </c>
       <c r="W26">
-        <v>-77.97</v>
+        <v>-53.953000000000003</v>
       </c>
       <c r="X26">
-        <v>-82.043000000000006</v>
+        <v>-92.635999999999996</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>-35.122</v>
+        <v>21.951000000000001</v>
       </c>
       <c r="AA26">
-        <v>107.175</v>
+        <v>72.849000000000004</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>136.869</v>
+        <v>127.708</v>
       </c>
       <c r="D27">
-        <v>902.65899999999999</v>
+        <v>258.17599999999999</v>
       </c>
       <c r="E27">
-        <v>471.2</v>
+        <v>123.923</v>
       </c>
       <c r="F27">
-        <v>528.63</v>
+        <v>154.601</v>
       </c>
       <c r="G27">
-        <v>2305</v>
+        <v>1084.7370000000001</v>
       </c>
       <c r="H27">
-        <v>7686.9</v>
+        <v>2269.5410000000002</v>
       </c>
       <c r="I27">
-        <v>149.19999999999999</v>
+        <v>34.674999999999997</v>
       </c>
       <c r="J27">
-        <v>2900.5</v>
+        <v>0</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -2847,78 +2967,78 @@
         <v>0</v>
       </c>
       <c r="N27">
-        <v>704.5</v>
+        <v>255.92</v>
       </c>
       <c r="O27">
-        <v>4416.2</v>
+        <v>265.173</v>
       </c>
       <c r="P27">
-        <v>2950.5</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>244.81299999999999</v>
+        <v>14.2</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="S27">
-        <v>12656</v>
+        <v>4582</v>
       </c>
       <c r="T27">
-        <v>3270.7</v>
+        <v>2004.3679999999999</v>
       </c>
       <c r="U27">
-        <v>908.7</v>
+        <v>167.477</v>
       </c>
       <c r="V27">
-        <v>322.608</v>
+        <v>71.944000000000003</v>
       </c>
       <c r="W27">
-        <v>-82.552999999999997</v>
+        <v>-57.372</v>
       </c>
       <c r="X27">
-        <v>409.702</v>
+        <v>-52.311</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>-463.88600000000002</v>
+        <v>3.3610000000000002</v>
       </c>
       <c r="AA27">
-        <v>136.869</v>
+        <v>127.708</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>170.6</v>
+        <v>80.293000000000006</v>
       </c>
       <c r="D28">
-        <v>972.1</v>
+        <v>264.072</v>
       </c>
       <c r="E28">
-        <v>522.96299999999997</v>
+        <v>126.608</v>
       </c>
       <c r="F28">
-        <v>584.4</v>
+        <v>158.54499999999999</v>
       </c>
       <c r="G28">
-        <v>2298.7620000000002</v>
+        <v>1084.086</v>
       </c>
       <c r="H28">
-        <v>7887.8909999999996</v>
+        <v>2362.3420000000001</v>
       </c>
       <c r="I28">
-        <v>171.857</v>
+        <v>48.472000000000001</v>
       </c>
       <c r="J28">
-        <v>2983.9079999999999</v>
+        <v>0</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -2927,81 +3047,81 @@
         <v>0</v>
       </c>
       <c r="M28">
-        <v>-60.2</v>
+        <v>0</v>
       </c>
       <c r="N28">
-        <v>736.44299999999998</v>
+        <v>186.286</v>
       </c>
       <c r="O28">
-        <v>4475.3370000000004</v>
+        <v>301.298</v>
       </c>
       <c r="P28">
-        <v>2995.1640000000002</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>-135.69999999999999</v>
+        <v>0.52600000000000002</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>3412.5540000000001</v>
+        <v>2061.0439999999999</v>
       </c>
       <c r="U28">
-        <v>773.03599999999994</v>
+        <v>168.00299999999999</v>
       </c>
       <c r="V28">
-        <v>345</v>
+        <v>122.63</v>
       </c>
       <c r="W28">
-        <v>-82.9</v>
+        <v>-61.119</v>
       </c>
       <c r="X28">
-        <v>-89.3</v>
+        <v>-30.754999999999999</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>-377.4</v>
+        <v>-65.930999999999997</v>
       </c>
       <c r="AA28">
-        <v>170.6</v>
+        <v>80.293000000000006</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>189.1</v>
+        <v>60.679000000000002</v>
       </c>
       <c r="D29">
-        <v>1012.1</v>
+        <v>258.64699999999999</v>
       </c>
       <c r="E29">
-        <v>537.42600000000004</v>
+        <v>125.617</v>
       </c>
       <c r="F29">
-        <v>614.1</v>
+        <v>154.71199999999999</v>
       </c>
       <c r="G29">
-        <v>2443.422</v>
+        <v>1242.511</v>
       </c>
       <c r="H29">
-        <v>8055.1980000000003</v>
+        <v>2248.6790000000001</v>
       </c>
       <c r="I29">
-        <v>182.59899999999999</v>
+        <v>39.654000000000003</v>
       </c>
       <c r="J29">
-        <v>3011.8519999999999</v>
+        <v>0</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -3013,78 +3133,78 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>734.18600000000004</v>
+        <v>185.86099999999999</v>
       </c>
       <c r="O29">
-        <v>4509.0739999999996</v>
+        <v>306.70600000000002</v>
       </c>
       <c r="P29">
-        <v>3017.8319999999999</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>53.4</v>
+        <v>6.2220000000000004</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>3546.1239999999998</v>
+        <v>1941.973</v>
       </c>
       <c r="U29">
-        <v>826.40700000000004</v>
+        <v>174.22499999999999</v>
       </c>
       <c r="V29">
-        <v>350.1</v>
+        <v>105.407</v>
       </c>
       <c r="W29">
-        <v>-84.5</v>
+        <v>-64.094999999999999</v>
       </c>
       <c r="X29">
-        <v>-96.1</v>
+        <v>-193.233</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>-139</v>
+        <v>107.54300000000001</v>
       </c>
       <c r="AA29">
-        <v>189.2</v>
+        <v>60.679000000000002</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>-251</v>
+        <v>80.123999999999995</v>
       </c>
       <c r="D30">
-        <v>994.2</v>
+        <v>252.6</v>
       </c>
       <c r="E30">
-        <v>545.45299999999997</v>
+        <v>113.94499999999999</v>
       </c>
       <c r="F30">
-        <v>607.1</v>
+        <v>153.047</v>
       </c>
       <c r="G30">
-        <v>2253.4409999999998</v>
+        <v>1797.222</v>
       </c>
       <c r="H30">
-        <v>8123.7929999999997</v>
+        <v>2616.748</v>
       </c>
       <c r="I30">
-        <v>162.71799999999999</v>
+        <v>35.595999999999997</v>
       </c>
       <c r="J30">
-        <v>3039.623</v>
+        <v>1150.1030000000001</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -3096,78 +3216,78 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>756.83199999999999</v>
+        <v>176.804</v>
       </c>
       <c r="O30">
-        <v>4938.7179999999998</v>
+        <v>1453.5530000000001</v>
       </c>
       <c r="P30">
-        <v>3039.623</v>
+        <v>1150.1030000000001</v>
       </c>
       <c r="Q30">
-        <v>-154.30000000000001</v>
+        <v>656.78</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="S30">
         <v>0</v>
       </c>
       <c r="T30">
-        <v>3185.0749999999998</v>
+        <v>1163.1949999999999</v>
       </c>
       <c r="U30">
-        <v>672.07899999999995</v>
+        <v>831.005</v>
       </c>
       <c r="V30">
-        <v>365</v>
+        <v>132.09800000000001</v>
       </c>
       <c r="W30">
-        <v>-85</v>
+        <v>-66.378</v>
       </c>
       <c r="X30">
-        <v>-149.69999999999999</v>
+        <v>255.989</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>-301.7</v>
+        <v>254.852</v>
       </c>
       <c r="AA30">
-        <v>-251.1</v>
+        <v>80.123999999999995</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>146.69999999999999</v>
+        <v>76.652000000000001</v>
       </c>
       <c r="D31">
-        <v>1002.3</v>
+        <v>260.41800000000001</v>
       </c>
       <c r="E31">
-        <v>555.6</v>
+        <v>137.81399999999999</v>
       </c>
       <c r="F31">
-        <v>615.1</v>
+        <v>158.63399999999999</v>
       </c>
       <c r="G31">
-        <v>3356.3</v>
+        <v>1717.73</v>
       </c>
       <c r="H31">
-        <v>8257.2000000000007</v>
+        <v>2512.3069999999998</v>
       </c>
       <c r="I31">
-        <v>144.1</v>
+        <v>39.317</v>
       </c>
       <c r="J31">
-        <v>1758.4</v>
+        <v>1150.1279999999999</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -3179,78 +3299,78 @@
         <v>0</v>
       </c>
       <c r="N31">
-        <v>2017.4</v>
+        <v>191.08099999999999</v>
       </c>
       <c r="O31">
-        <v>4977.3999999999996</v>
+        <v>1476.0840000000001</v>
       </c>
       <c r="P31">
-        <v>3068.3</v>
+        <v>1150.1279999999999</v>
       </c>
       <c r="Q31">
-        <v>229.2</v>
+        <v>-343.26900000000001</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="S31">
-        <v>14234</v>
+        <v>4811</v>
       </c>
       <c r="T31">
-        <v>3279.8</v>
+        <v>1036.223</v>
       </c>
       <c r="U31">
-        <v>901.3</v>
+        <v>487.73599999999999</v>
       </c>
       <c r="V31">
-        <v>359.5</v>
+        <v>87.171999999999997</v>
       </c>
       <c r="W31">
-        <v>-85.1</v>
+        <v>-60.366999999999997</v>
       </c>
       <c r="X31">
-        <v>-80.2</v>
+        <v>-214.70400000000001</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>10</v>
+        <v>-195.21799999999999</v>
       </c>
       <c r="AA31">
-        <v>146.69999999999999</v>
+        <v>76.652000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>35.700000000000003</v>
+        <v>75.546999999999997</v>
       </c>
       <c r="D32">
-        <v>1212.5</v>
+        <v>268.17200000000003</v>
       </c>
       <c r="E32">
-        <v>780.5</v>
+        <v>135.37299999999999</v>
       </c>
       <c r="F32">
-        <v>749.5</v>
+        <v>163.59700000000001</v>
       </c>
       <c r="G32">
-        <v>2818.4</v>
+        <v>1431.335</v>
       </c>
       <c r="H32">
-        <v>19248.8</v>
+        <v>2543.4380000000001</v>
       </c>
       <c r="I32">
-        <v>318.2</v>
+        <v>47.768999999999998</v>
       </c>
       <c r="J32">
-        <v>10019.799999999999</v>
+        <v>1150.2270000000001</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -3259,81 +3379,81 @@
         <v>0</v>
       </c>
       <c r="M32">
-        <v>-2208.5</v>
+        <v>0</v>
       </c>
       <c r="N32">
-        <v>2139.3000000000002</v>
+        <v>194.52099999999999</v>
       </c>
       <c r="O32">
-        <v>14125</v>
+        <v>1490.91</v>
       </c>
       <c r="P32">
-        <v>11349.6</v>
+        <v>1150.2270000000001</v>
       </c>
       <c r="Q32">
-        <v>-266.10000000000002</v>
+        <v>197.839</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>5123.8</v>
+        <v>1052.528</v>
       </c>
       <c r="U32">
-        <v>635.20000000000005</v>
+        <v>685.57500000000005</v>
       </c>
       <c r="V32">
-        <v>302.39999999999998</v>
+        <v>123.093</v>
       </c>
       <c r="W32">
-        <v>-85.5</v>
+        <v>-60.976999999999997</v>
       </c>
       <c r="X32">
-        <v>6098</v>
+        <v>-65.013999999999996</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>1275.5999999999999</v>
+        <v>161.63499999999999</v>
       </c>
       <c r="AA32">
-        <v>35.700000000000003</v>
+        <v>75.546999999999997</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>96.3</v>
+        <v>75.72</v>
       </c>
       <c r="D33">
-        <v>1432.5</v>
+        <v>269.70600000000002</v>
       </c>
       <c r="E33">
-        <v>662.5</v>
+        <v>120.479</v>
       </c>
       <c r="F33">
-        <v>871.4</v>
+        <v>164.15299999999999</v>
       </c>
       <c r="G33">
-        <v>2176.1999999999998</v>
+        <v>1486.56</v>
       </c>
       <c r="H33">
-        <v>18667.099999999999</v>
+        <v>2516.9839999999999</v>
       </c>
       <c r="I33">
-        <v>271.2</v>
+        <v>60.514000000000003</v>
       </c>
       <c r="J33">
-        <v>9551.1</v>
+        <v>1149.5039999999999</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -3345,78 +3465,78 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>2088.1</v>
+        <v>221.47900000000001</v>
       </c>
       <c r="O33">
-        <v>13496.9</v>
+        <v>1527.816</v>
       </c>
       <c r="P33">
-        <v>10886.1</v>
+        <v>1149.5039999999999</v>
       </c>
       <c r="Q33">
-        <v>-175.5</v>
+        <v>-373.83699999999999</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>5170.2</v>
+        <v>989.16800000000001</v>
       </c>
       <c r="U33">
-        <v>459.7</v>
+        <v>311.738</v>
       </c>
       <c r="V33">
-        <v>487.5</v>
+        <v>144.39400000000001</v>
       </c>
       <c r="W33">
-        <v>-85.9</v>
+        <v>-62.167999999999999</v>
       </c>
       <c r="X33">
-        <v>-593.5</v>
+        <v>-148.03899999999999</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>9.1999999999999993</v>
+        <v>-323.59899999999999</v>
       </c>
       <c r="AA33">
-        <v>96.3</v>
+        <v>75.72</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>49.2</v>
+        <v>72.355999999999995</v>
       </c>
       <c r="D34">
-        <v>1374.7</v>
+        <v>192.166</v>
       </c>
       <c r="E34">
-        <v>537.29999999999995</v>
+        <v>78.195999999999998</v>
       </c>
       <c r="F34">
-        <v>865.6</v>
+        <v>104.78700000000001</v>
       </c>
       <c r="G34">
-        <v>1877.6</v>
+        <v>1740.932</v>
       </c>
       <c r="H34">
-        <v>18155.7</v>
+        <v>2447.143</v>
       </c>
       <c r="I34">
-        <v>236</v>
+        <v>29.273</v>
       </c>
       <c r="J34">
-        <v>10542.3</v>
+        <v>1148.9749999999999</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -3428,78 +3548,78 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>643.70000000000005</v>
+        <v>175.744</v>
       </c>
       <c r="O34">
-        <v>12994.6</v>
+        <v>1428.6189999999999</v>
       </c>
       <c r="P34">
-        <v>10542.3</v>
+        <v>1148.9749999999999</v>
       </c>
       <c r="Q34">
-        <v>-27.5</v>
+        <v>79.456000000000003</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="S34">
         <v>0</v>
       </c>
       <c r="T34">
-        <v>5161.1000000000004</v>
+        <v>1018.524</v>
       </c>
       <c r="U34">
-        <v>432.2</v>
+        <v>391.19400000000002</v>
       </c>
       <c r="V34">
-        <v>481.5</v>
+        <v>-2.919</v>
       </c>
       <c r="W34">
-        <v>-86.4</v>
+        <v>-61.69</v>
       </c>
       <c r="X34">
-        <v>-477.6</v>
+        <v>-58.781999999999996</v>
       </c>
       <c r="Y34">
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>-0.2</v>
+        <v>179.37700000000001</v>
       </c>
       <c r="AA34">
-        <v>49.2</v>
+        <v>72.355999999999995</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>174.7</v>
+        <v>21.963999999999999</v>
       </c>
       <c r="D35">
-        <v>1329.8</v>
+        <v>173.25299999999999</v>
       </c>
       <c r="E35">
-        <v>873.8</v>
+        <v>88.149000000000001</v>
       </c>
       <c r="F35">
-        <v>810.4</v>
+        <v>83.966999999999999</v>
       </c>
       <c r="G35">
-        <v>2214.8000000000002</v>
+        <v>1742.789</v>
       </c>
       <c r="H35">
-        <v>18350</v>
+        <v>2405.7109999999998</v>
       </c>
       <c r="I35">
-        <v>226.4</v>
+        <v>29.228000000000002</v>
       </c>
       <c r="J35">
-        <v>8946.2000000000007</v>
+        <v>334.18400000000003</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -3511,78 +3631,78 @@
         <v>0</v>
       </c>
       <c r="N35">
-        <v>2374.5</v>
+        <v>155.64500000000001</v>
       </c>
       <c r="O35">
-        <v>13062.5</v>
+        <v>915.4</v>
       </c>
       <c r="P35">
-        <v>10307</v>
+        <v>334.18400000000003</v>
       </c>
       <c r="Q35">
-        <v>-3.6</v>
+        <v>55.134999999999998</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="S35">
-        <v>18286</v>
+        <v>4895</v>
       </c>
       <c r="T35">
-        <v>5287.5</v>
+        <v>1490.3109999999999</v>
       </c>
       <c r="U35">
-        <v>428.6</v>
+        <v>446.32900000000001</v>
       </c>
       <c r="V35">
-        <v>403.4</v>
+        <v>44.085000000000001</v>
       </c>
       <c r="W35">
-        <v>-86.6</v>
+        <v>-61.822000000000003</v>
       </c>
       <c r="X35">
-        <v>-363.4</v>
+        <v>-58.398000000000003</v>
       </c>
       <c r="Y35">
         <v>0</v>
       </c>
       <c r="Z35">
-        <v>2.2999999999999998</v>
+        <v>86.563999999999993</v>
       </c>
       <c r="AA35">
-        <v>174.7</v>
+        <v>21.963999999999999</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>50.7</v>
+        <v>27.367999999999999</v>
       </c>
       <c r="D36">
-        <v>1322.6</v>
+        <v>192.94900000000001</v>
       </c>
       <c r="E36">
-        <v>929.1</v>
+        <v>97.358999999999995</v>
       </c>
       <c r="F36">
-        <v>815.2</v>
+        <v>96.435000000000002</v>
       </c>
       <c r="G36">
-        <v>2278.5</v>
+        <v>1761.1410000000001</v>
       </c>
       <c r="H36">
-        <v>18246.400000000001</v>
+        <v>2386.4090000000001</v>
       </c>
       <c r="I36">
-        <v>245.7</v>
+        <v>28.885000000000002</v>
       </c>
       <c r="J36">
-        <v>8711.4</v>
+        <v>335.53899999999999</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -3591,81 +3711,81 @@
         <v>0</v>
       </c>
       <c r="M36">
-        <v>-461.7</v>
+        <v>0</v>
       </c>
       <c r="N36">
-        <v>2450.8000000000002</v>
+        <v>149.191</v>
       </c>
       <c r="O36">
-        <v>12958.1</v>
+        <v>929.20100000000002</v>
       </c>
       <c r="P36">
-        <v>10224.6</v>
+        <v>335.53899999999999</v>
       </c>
       <c r="Q36">
-        <v>5.4</v>
+        <v>130.65</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>5288.3</v>
+        <v>1457.2080000000001</v>
       </c>
       <c r="U36">
-        <v>434</v>
+        <v>576.97900000000004</v>
       </c>
       <c r="V36">
-        <v>380.6</v>
+        <v>115.06699999999999</v>
       </c>
       <c r="W36">
-        <v>-87.1</v>
+        <v>-61.991</v>
       </c>
       <c r="X36">
-        <v>-348.9</v>
+        <v>-61.447000000000003</v>
       </c>
       <c r="Y36">
-        <v>100.6</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>0</v>
+        <v>81.688000000000002</v>
       </c>
       <c r="AA36">
-        <v>50.7</v>
+        <v>27.367999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>108.9</v>
+        <v>44.484999999999999</v>
       </c>
       <c r="D37">
-        <v>1337.8</v>
+        <v>226.661</v>
       </c>
       <c r="E37">
-        <v>840.7</v>
+        <v>106.095</v>
       </c>
       <c r="F37">
-        <v>827.5</v>
+        <v>123.34</v>
       </c>
       <c r="G37">
-        <v>2177.8000000000002</v>
+        <v>1727.4559999999999</v>
       </c>
       <c r="H37">
-        <v>17858.5</v>
+        <v>2418.2849999999999</v>
       </c>
       <c r="I37">
-        <v>235.6</v>
+        <v>33.926000000000002</v>
       </c>
       <c r="J37">
-        <v>8415.2999999999993</v>
+        <v>337.40300000000002</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -3677,78 +3797,78 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>2423.4</v>
+        <v>170.35</v>
       </c>
       <c r="O37">
-        <v>12497.2</v>
+        <v>959.96799999999996</v>
       </c>
       <c r="P37">
-        <v>9954.9</v>
+        <v>337.40300000000002</v>
       </c>
       <c r="Q37">
-        <v>-32.200000000000003</v>
+        <v>-35.933999999999997</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>5361.3</v>
+        <v>1458.317</v>
       </c>
       <c r="U37">
-        <v>401.8</v>
+        <v>541.04499999999996</v>
       </c>
       <c r="V37">
-        <v>396</v>
+        <v>128.02500000000001</v>
       </c>
       <c r="W37">
-        <v>-87.3</v>
+        <v>-62.082999999999998</v>
       </c>
       <c r="X37">
-        <v>-399.8</v>
+        <v>-52.942999999999998</v>
       </c>
       <c r="Y37">
-        <v>111.8</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>0</v>
+        <v>-101.048</v>
       </c>
       <c r="AA37">
-        <v>108.9</v>
+        <v>44.484999999999999</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>311.10000000000002</v>
+        <v>69.403000000000006</v>
       </c>
       <c r="D38">
-        <v>1287.4000000000001</v>
+        <v>250.09899999999999</v>
       </c>
       <c r="E38">
-        <v>796</v>
+        <v>113.13800000000001</v>
       </c>
       <c r="F38">
-        <v>785.5</v>
+        <v>145.99600000000001</v>
       </c>
       <c r="G38">
-        <v>2104</v>
+        <v>1442.7370000000001</v>
       </c>
       <c r="H38">
-        <v>17588.599999999999</v>
+        <v>2443.607</v>
       </c>
       <c r="I38">
-        <v>209.3</v>
+        <v>38.387</v>
       </c>
       <c r="J38">
-        <v>8179.7</v>
+        <v>339</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -3760,78 +3880,78 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>2336.6</v>
+        <v>185.13499999999999</v>
       </c>
       <c r="O38">
-        <v>11972</v>
+        <v>959.73199999999997</v>
       </c>
       <c r="P38">
-        <v>9734.4</v>
+        <v>339</v>
       </c>
       <c r="Q38">
-        <v>-4.7</v>
+        <v>-179.75399999999999</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="S38">
         <v>0</v>
       </c>
       <c r="T38">
-        <v>5616.6</v>
+        <v>1483.875</v>
       </c>
       <c r="U38">
-        <v>397.1</v>
+        <v>361.291</v>
       </c>
       <c r="V38">
-        <v>395.5</v>
+        <v>100.92700000000001</v>
       </c>
       <c r="W38">
-        <v>-87.7</v>
+        <v>-62.52</v>
       </c>
       <c r="X38">
-        <v>-357.2</v>
+        <v>-51.576000000000001</v>
       </c>
       <c r="Y38">
-        <v>111</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>-2</v>
+        <v>-209.44</v>
       </c>
       <c r="AA38">
-        <v>311.10000000000002</v>
+        <v>69.403000000000006</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>99.9</v>
+        <v>75.748999999999995</v>
       </c>
       <c r="D39">
-        <v>1326.4</v>
+        <v>278.02</v>
       </c>
       <c r="E39">
-        <v>919.2</v>
+        <v>137.23099999999999</v>
       </c>
       <c r="F39">
-        <v>813.9</v>
+        <v>168.471</v>
       </c>
       <c r="G39">
-        <v>2217.1999999999998</v>
+        <v>1610.9690000000001</v>
       </c>
       <c r="H39">
-        <v>17426.099999999999</v>
+        <v>2516.3130000000001</v>
       </c>
       <c r="I39">
-        <v>246.8</v>
+        <v>44.238</v>
       </c>
       <c r="J39">
-        <v>8873.4</v>
+        <v>340.67200000000003</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -3843,161 +3963,161 @@
         <v>0</v>
       </c>
       <c r="N39">
-        <v>1637.4</v>
+        <v>203.39</v>
       </c>
       <c r="O39">
-        <v>11840.6</v>
+        <v>982.93299999999999</v>
       </c>
       <c r="P39">
-        <v>9621.4</v>
+        <v>340.67200000000003</v>
       </c>
       <c r="Q39">
-        <v>3.9</v>
+        <v>130.839</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="S39">
-        <v>18000</v>
+        <v>5418</v>
       </c>
       <c r="T39">
-        <v>5585.5</v>
+        <v>1533.38</v>
       </c>
       <c r="U39">
-        <v>401</v>
+        <v>492.13</v>
       </c>
       <c r="V39">
-        <v>371.7</v>
+        <v>108.02800000000001</v>
       </c>
       <c r="W39">
-        <v>-88</v>
+        <v>-62.962000000000003</v>
       </c>
       <c r="X39">
-        <v>-332.3</v>
+        <v>-45.018000000000001</v>
       </c>
       <c r="Y39">
-        <v>94.7</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>4.7</v>
+        <v>154.88300000000001</v>
       </c>
       <c r="AA39">
-        <v>99.9</v>
+        <v>75.748999999999995</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>123.6</v>
+        <v>89.566000000000003</v>
       </c>
       <c r="D40">
-        <v>1309.7</v>
+        <v>357.125</v>
       </c>
       <c r="E40">
-        <v>884.7</v>
+        <v>192.14</v>
       </c>
       <c r="F40">
-        <v>798.3</v>
+        <v>207.44300000000001</v>
       </c>
       <c r="G40">
-        <v>2135</v>
+        <v>1847.8820000000001</v>
       </c>
       <c r="H40">
-        <v>17028.099999999999</v>
+        <v>2693.2689999999998</v>
       </c>
       <c r="I40">
-        <v>211.1</v>
+        <v>84.516999999999996</v>
       </c>
       <c r="J40">
-        <v>7730</v>
+        <v>342.22300000000001</v>
       </c>
       <c r="K40">
         <v>0</v>
       </c>
       <c r="L40">
-        <v>-615</v>
+        <v>0</v>
       </c>
       <c r="M40">
-        <v>-3217.1</v>
+        <v>0</v>
       </c>
       <c r="N40">
-        <v>2585.8000000000002</v>
+        <v>284.084</v>
       </c>
       <c r="O40">
-        <v>11526.8</v>
+        <v>1125.8040000000001</v>
       </c>
       <c r="P40">
-        <v>9366.5</v>
+        <v>342.22300000000001</v>
       </c>
       <c r="Q40">
-        <v>-22.8</v>
+        <v>31.344000000000001</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>5501.3</v>
+        <v>1567.4649999999999</v>
       </c>
       <c r="U40">
-        <v>378.2</v>
+        <v>523.47400000000005</v>
       </c>
       <c r="V40">
-        <v>501.8</v>
+        <v>133.31800000000001</v>
       </c>
       <c r="W40">
-        <v>-90.4</v>
+        <v>-63.453000000000003</v>
       </c>
       <c r="X40">
-        <v>-507.7</v>
+        <v>-56.143000000000001</v>
       </c>
       <c r="Y40">
         <v>0</v>
       </c>
       <c r="Z40">
-        <v>0</v>
+        <v>82.691000000000003</v>
       </c>
       <c r="AA40">
-        <v>123.6</v>
+        <v>89.566000000000003</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>73.599999999999994</v>
+        <v>103.08</v>
       </c>
       <c r="D41">
-        <v>1309.5</v>
+        <v>382.27100000000002</v>
       </c>
       <c r="E41">
-        <v>893.2</v>
+        <v>201.46100000000001</v>
       </c>
       <c r="F41">
-        <v>807.9</v>
+        <v>225.005</v>
       </c>
       <c r="G41">
-        <v>2122.1</v>
+        <v>1917.3050000000001</v>
       </c>
       <c r="H41">
-        <v>16770.900000000001</v>
+        <v>2808.37</v>
       </c>
       <c r="I41">
-        <v>216.9</v>
+        <v>73.882000000000005</v>
       </c>
       <c r="J41">
-        <v>8181.4</v>
+        <v>344.08499999999998</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>1975.2</v>
+        <v>310.14</v>
       </c>
       <c r="O41">
-        <v>11327.2</v>
+        <v>1171.204</v>
       </c>
       <c r="P41">
-        <v>9217.7000000000007</v>
+        <v>344.08499999999998</v>
       </c>
       <c r="Q41">
-        <v>-9.9</v>
+        <v>-99.753</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>5443.7</v>
+        <v>1637.1659999999999</v>
       </c>
       <c r="U41">
-        <v>368.3</v>
+        <v>423.721</v>
       </c>
       <c r="V41">
-        <v>455.8</v>
+        <v>158.12899999999999</v>
       </c>
       <c r="W41">
-        <v>-95.3</v>
+        <v>-63.908000000000001</v>
       </c>
       <c r="X41">
-        <v>-424</v>
+        <v>-48.948999999999998</v>
       </c>
       <c r="Y41">
         <v>0</v>
       </c>
       <c r="Z41">
-        <v>0</v>
+        <v>-185.80799999999999</v>
       </c>
       <c r="AA41">
-        <v>73.599999999999994</v>
+        <v>103.08</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>100.776</v>
+      </c>
+      <c r="D42">
+        <v>367.82400000000001</v>
+      </c>
+      <c r="E42">
+        <v>185.946</v>
+      </c>
+      <c r="F42">
+        <v>216.39699999999999</v>
+      </c>
+      <c r="G42">
+        <v>1738.444</v>
+      </c>
+      <c r="H42">
+        <v>2828.7260000000001</v>
+      </c>
+      <c r="I42">
+        <v>66.069999999999993</v>
+      </c>
+      <c r="J42">
+        <v>345.58100000000002</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>299.935</v>
+      </c>
+      <c r="O42">
+        <v>1178.7809999999999</v>
+      </c>
+      <c r="P42">
+        <v>345.58100000000002</v>
+      </c>
+      <c r="Q42">
+        <v>76.894999999999996</v>
+      </c>
+      <c r="R42">
+        <v>40543</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>1649.9449999999999</v>
+      </c>
+      <c r="U42">
+        <v>500.61599999999999</v>
+      </c>
+      <c r="V42">
+        <v>138.67699999999999</v>
+      </c>
+      <c r="W42">
+        <v>-129.447</v>
+      </c>
+      <c r="X42">
+        <v>-99.129000000000005</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>82.805000000000007</v>
+      </c>
+      <c r="AA42">
+        <v>100.776</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40633</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>125.52800000000001</v>
+      </c>
+      <c r="D43">
+        <v>379.98500000000001</v>
+      </c>
+      <c r="E43">
+        <v>179.00200000000001</v>
+      </c>
+      <c r="F43">
+        <v>225.59100000000001</v>
+      </c>
+      <c r="G43">
+        <v>1774.9829999999999</v>
+      </c>
+      <c r="H43">
+        <v>2968.058</v>
+      </c>
+      <c r="I43">
+        <v>68.433000000000007</v>
+      </c>
+      <c r="J43">
+        <v>347.334</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>340.31599999999997</v>
+      </c>
+      <c r="O43">
+        <v>1155.6199999999999</v>
+      </c>
+      <c r="P43">
+        <v>347.334</v>
+      </c>
+      <c r="Q43">
+        <v>203.30799999999999</v>
+      </c>
+      <c r="R43">
+        <v>40633</v>
+      </c>
+      <c r="S43">
+        <v>6970</v>
+      </c>
+      <c r="T43">
+        <v>1812.4380000000001</v>
+      </c>
+      <c r="U43">
+        <v>703.92399999999998</v>
+      </c>
+      <c r="V43">
+        <v>152.53700000000001</v>
+      </c>
+      <c r="W43">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="X43">
+        <v>21.204000000000001</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>67.542000000000002</v>
+      </c>
+      <c r="AA43">
+        <v>125.52800000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40724</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>99.293000000000006</v>
+      </c>
+      <c r="D44">
+        <v>374.50700000000001</v>
+      </c>
+      <c r="E44">
+        <v>194.65199999999999</v>
+      </c>
+      <c r="F44">
+        <v>219.74799999999999</v>
+      </c>
+      <c r="G44">
+        <v>2095.6869999999999</v>
+      </c>
+      <c r="H44">
+        <v>3029.299</v>
+      </c>
+      <c r="I44">
+        <v>67.528000000000006</v>
+      </c>
+      <c r="J44">
+        <v>349.10899999999998</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>328.08300000000003</v>
+      </c>
+      <c r="O44">
+        <v>1150.077</v>
+      </c>
+      <c r="P44">
+        <v>349.10899999999998</v>
+      </c>
+      <c r="Q44">
+        <v>-52.540999999999997</v>
+      </c>
+      <c r="R44">
+        <v>40724</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>1879.222</v>
+      </c>
+      <c r="U44">
+        <v>651.38300000000004</v>
+      </c>
+      <c r="V44">
+        <v>83.305000000000007</v>
+      </c>
+      <c r="W44">
+        <v>-65.900000000000006</v>
+      </c>
+      <c r="X44">
+        <v>-47.243000000000002</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>-60.408000000000001</v>
+      </c>
+      <c r="AA44">
+        <v>99.293000000000006</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40816</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>79.287000000000006</v>
+      </c>
+      <c r="D45">
+        <v>340.60199999999998</v>
+      </c>
+      <c r="E45">
+        <v>140.887</v>
+      </c>
+      <c r="F45">
+        <v>196.703</v>
+      </c>
+      <c r="G45">
+        <v>1933.376</v>
+      </c>
+      <c r="H45">
+        <v>3033.7489999999998</v>
+      </c>
+      <c r="I45">
+        <v>57.792000000000002</v>
+      </c>
+      <c r="J45">
+        <v>351.37099999999998</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>294.15300000000002</v>
+      </c>
+      <c r="O45">
+        <v>1129.81</v>
+      </c>
+      <c r="P45">
+        <v>351.37099999999998</v>
+      </c>
+      <c r="Q45">
+        <v>23.745999999999999</v>
+      </c>
+      <c r="R45">
+        <v>40816</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>1903.9390000000001</v>
+      </c>
+      <c r="U45">
+        <v>675.12900000000002</v>
+      </c>
+      <c r="V45">
+        <v>154.75399999999999</v>
+      </c>
+      <c r="W45">
+        <v>-66.206000000000003</v>
+      </c>
+      <c r="X45">
+        <v>-58.793999999999997</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>-42.862000000000002</v>
+      </c>
+      <c r="AA45">
+        <v>79.287000000000006</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>77.489000000000004</v>
+      </c>
+      <c r="D46">
+        <v>329.15600000000001</v>
+      </c>
+      <c r="E46">
+        <v>147.624</v>
+      </c>
+      <c r="F46">
+        <v>189.38800000000001</v>
+      </c>
+      <c r="G46">
+        <v>1830.08</v>
+      </c>
+      <c r="H46">
+        <v>3021.1509999999998</v>
+      </c>
+      <c r="I46">
+        <v>40.039000000000001</v>
+      </c>
+      <c r="J46">
+        <v>353.34100000000001</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>248.566</v>
+      </c>
+      <c r="O46">
+        <v>1079.846</v>
+      </c>
+      <c r="P46">
+        <v>353.34100000000001</v>
+      </c>
+      <c r="Q46">
+        <v>-69.403999999999996</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>1941.3050000000001</v>
+      </c>
+      <c r="U46">
+        <v>605.72500000000002</v>
+      </c>
+      <c r="V46">
+        <v>55.939</v>
+      </c>
+      <c r="W46">
+        <v>-66.813000000000002</v>
+      </c>
+      <c r="X46">
+        <v>-52.030999999999999</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>-65.611000000000004</v>
+      </c>
+      <c r="AA46">
+        <v>77.489000000000004</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>80.635999999999996</v>
+      </c>
+      <c r="D47">
+        <v>338.911</v>
+      </c>
+      <c r="E47">
+        <v>168.672</v>
+      </c>
+      <c r="F47">
+        <v>191.74600000000001</v>
+      </c>
+      <c r="G47">
+        <v>2015.8610000000001</v>
+      </c>
+      <c r="H47">
+        <v>3083.7759999999998</v>
+      </c>
+      <c r="I47">
+        <v>50.286999999999999</v>
+      </c>
+      <c r="J47">
+        <v>355.05</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>247.87299999999999</v>
+      </c>
+      <c r="O47">
+        <v>1093.1030000000001</v>
+      </c>
+      <c r="P47">
+        <v>355.05</v>
+      </c>
+      <c r="Q47">
+        <v>30.03</v>
+      </c>
+      <c r="R47">
+        <v>40999</v>
+      </c>
+      <c r="S47">
+        <v>6923</v>
+      </c>
+      <c r="T47">
+        <v>1990.673</v>
+      </c>
+      <c r="U47">
+        <v>635.755</v>
+      </c>
+      <c r="V47">
+        <v>102.46</v>
+      </c>
+      <c r="W47">
+        <v>-67.259</v>
+      </c>
+      <c r="X47">
+        <v>-50.076999999999998</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>18.756</v>
+      </c>
+      <c r="AA47">
+        <v>80.635999999999996</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>78.709999999999994</v>
+      </c>
+      <c r="D48">
+        <v>352.13400000000001</v>
+      </c>
+      <c r="E48">
+        <v>173.017</v>
+      </c>
+      <c r="F48">
+        <v>204.797</v>
+      </c>
+      <c r="G48">
+        <v>2229.2979999999998</v>
+      </c>
+      <c r="H48">
+        <v>3144.84</v>
+      </c>
+      <c r="I48">
+        <v>52.646000000000001</v>
+      </c>
+      <c r="J48">
+        <v>357.35500000000002</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>249.989</v>
+      </c>
+      <c r="O48">
+        <v>1126.8499999999999</v>
+      </c>
+      <c r="P48">
+        <v>357.35500000000002</v>
+      </c>
+      <c r="Q48">
+        <v>144.09299999999999</v>
+      </c>
+      <c r="R48">
+        <v>41090</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>2017.99</v>
+      </c>
+      <c r="U48">
+        <v>779.84799999999996</v>
+      </c>
+      <c r="V48">
+        <v>128.971</v>
+      </c>
+      <c r="W48">
+        <v>-67.748999999999995</v>
+      </c>
+      <c r="X48">
+        <v>-62.768000000000001</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>110.309</v>
+      </c>
+      <c r="AA48">
+        <v>78.709999999999994</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>-21.184000000000001</v>
+      </c>
+      <c r="D49">
+        <v>383.298</v>
+      </c>
+      <c r="E49">
+        <v>226.98099999999999</v>
+      </c>
+      <c r="F49">
+        <v>216.89500000000001</v>
+      </c>
+      <c r="G49">
+        <v>2289.2779999999998</v>
+      </c>
+      <c r="H49">
+        <v>3888.3760000000002</v>
+      </c>
+      <c r="I49">
+        <v>82.265000000000001</v>
+      </c>
+      <c r="J49">
+        <v>959.65599999999995</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>325.47300000000001</v>
+      </c>
+      <c r="O49">
+        <v>1924.278</v>
+      </c>
+      <c r="P49">
+        <v>959.65599999999995</v>
+      </c>
+      <c r="Q49">
+        <v>-343.113</v>
+      </c>
+      <c r="R49">
+        <v>41182</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>1964.098</v>
+      </c>
+      <c r="U49">
+        <v>436.73500000000001</v>
+      </c>
+      <c r="V49">
+        <v>63.3</v>
+      </c>
+      <c r="W49">
+        <v>-68.146000000000001</v>
+      </c>
+      <c r="X49">
+        <v>543.303</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>-202.822</v>
+      </c>
+      <c r="AA49">
+        <v>-21.184000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>10.173</v>
+      </c>
+      <c r="D50">
+        <v>416.04700000000003</v>
+      </c>
+      <c r="E50">
+        <v>174.65600000000001</v>
+      </c>
+      <c r="F50">
+        <v>231.22800000000001</v>
+      </c>
+      <c r="G50">
+        <v>2296.5830000000001</v>
+      </c>
+      <c r="H50">
+        <v>3843.5239999999999</v>
+      </c>
+      <c r="I50">
+        <v>54.051000000000002</v>
+      </c>
+      <c r="J50">
+        <v>971.40899999999999</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>296.279</v>
+      </c>
+      <c r="O50">
+        <v>1916.4380000000001</v>
+      </c>
+      <c r="P50">
+        <v>971.40899999999999</v>
+      </c>
+      <c r="Q50">
+        <v>28.558</v>
+      </c>
+      <c r="R50">
+        <v>41274</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>1927.086</v>
+      </c>
+      <c r="U50">
+        <v>465.29300000000001</v>
+      </c>
+      <c r="V50">
+        <v>139.21100000000001</v>
+      </c>
+      <c r="W50">
+        <v>-68.697000000000003</v>
+      </c>
+      <c r="X50">
+        <v>-52.353999999999999</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>-46.508000000000003</v>
+      </c>
+      <c r="AA50">
+        <v>10.173</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>59.69</v>
+      </c>
+      <c r="D51">
+        <v>430.14400000000001</v>
+      </c>
+      <c r="E51">
+        <v>227.70500000000001</v>
+      </c>
+      <c r="F51">
+        <v>237.63900000000001</v>
+      </c>
+      <c r="G51">
+        <v>2236.37</v>
+      </c>
+      <c r="H51">
+        <v>3851.4050000000002</v>
+      </c>
+      <c r="I51">
+        <v>75.551000000000002</v>
+      </c>
+      <c r="J51">
+        <v>983.38499999999999</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>341.61099999999999</v>
+      </c>
+      <c r="O51">
+        <v>1917.9349999999999</v>
+      </c>
+      <c r="P51">
+        <v>983.38499999999999</v>
+      </c>
+      <c r="Q51">
+        <v>63.040999999999997</v>
+      </c>
+      <c r="R51">
+        <v>41364</v>
+      </c>
+      <c r="S51">
+        <v>8003</v>
+      </c>
+      <c r="T51">
+        <v>1933.47</v>
+      </c>
+      <c r="U51">
+        <v>528.33399999999995</v>
+      </c>
+      <c r="V51">
+        <v>127.883</v>
+      </c>
+      <c r="W51">
+        <v>-69.23</v>
+      </c>
+      <c r="X51">
+        <v>-46.011000000000003</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>-3.3769999999999998</v>
+      </c>
+      <c r="AA51">
+        <v>59.69</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>78.578999999999994</v>
+      </c>
+      <c r="D52">
+        <v>462.79199999999997</v>
+      </c>
+      <c r="E52">
+        <v>229.76400000000001</v>
+      </c>
+      <c r="F52">
+        <v>266.57400000000001</v>
+      </c>
+      <c r="G52">
+        <v>1615.6969999999999</v>
+      </c>
+      <c r="H52">
+        <v>3883.5749999999998</v>
+      </c>
+      <c r="I52">
+        <v>77.692999999999998</v>
+      </c>
+      <c r="J52">
+        <v>974.25</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>-650.04399999999998</v>
+      </c>
+      <c r="N52">
+        <v>351.66399999999999</v>
+      </c>
+      <c r="O52">
+        <v>1929.3150000000001</v>
+      </c>
+      <c r="P52">
+        <v>974.25</v>
+      </c>
+      <c r="Q52">
+        <v>-125.10299999999999</v>
+      </c>
+      <c r="R52">
+        <v>41455</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>1954.26</v>
+      </c>
+      <c r="U52">
+        <v>403.23099999999999</v>
+      </c>
+      <c r="V52">
+        <v>167.37200000000001</v>
+      </c>
+      <c r="W52">
+        <v>-69.682000000000002</v>
+      </c>
+      <c r="X52">
+        <v>-80.340999999999994</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>-196.78700000000001</v>
+      </c>
+      <c r="AA52">
+        <v>78.578999999999994</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>99.805999999999997</v>
+      </c>
+      <c r="D53">
+        <v>492.66899999999998</v>
+      </c>
+      <c r="E53">
+        <v>228.499</v>
+      </c>
+      <c r="F53">
+        <v>288.863</v>
+      </c>
+      <c r="G53">
+        <v>1820.9059999999999</v>
+      </c>
+      <c r="H53">
+        <v>3965.1509999999998</v>
+      </c>
+      <c r="I53">
+        <v>77.768000000000001</v>
+      </c>
+      <c r="J53">
+        <v>997.91200000000003</v>
+      </c>
+      <c r="K53">
+        <v>8.375</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>338.89299999999997</v>
+      </c>
+      <c r="O53">
+        <v>1946.6120000000001</v>
+      </c>
+      <c r="P53">
+        <v>1006.287</v>
+      </c>
+      <c r="Q53">
+        <v>-59.029000000000003</v>
+      </c>
+      <c r="R53">
+        <v>41547</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>2018.539</v>
+      </c>
+      <c r="U53">
+        <v>344.202</v>
+      </c>
+      <c r="V53">
+        <v>157.55099999999999</v>
+      </c>
+      <c r="W53">
+        <v>-70.085999999999999</v>
+      </c>
+      <c r="X53">
+        <v>-39.624000000000002</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>-148.172</v>
+      </c>
+      <c r="AA53">
+        <v>99.805999999999997</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>105.401</v>
+      </c>
+      <c r="D54">
+        <v>482.37200000000001</v>
+      </c>
+      <c r="E54">
+        <v>222.17099999999999</v>
+      </c>
+      <c r="F54">
+        <v>284.52</v>
+      </c>
+      <c r="G54">
+        <v>1969.028</v>
+      </c>
+      <c r="H54">
+        <v>4003.1080000000002</v>
+      </c>
+      <c r="I54">
+        <v>62.75</v>
+      </c>
+      <c r="J54">
+        <v>1005.312</v>
+      </c>
+      <c r="K54">
+        <v>14.159000000000001</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>316.39999999999998</v>
+      </c>
+      <c r="O54">
+        <v>1928</v>
+      </c>
+      <c r="P54">
+        <v>1019.471</v>
+      </c>
+      <c r="Q54">
+        <v>30.898</v>
+      </c>
+      <c r="R54">
+        <v>41639</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>2075.1080000000002</v>
+      </c>
+      <c r="U54">
+        <v>375.1</v>
+      </c>
+      <c r="V54">
+        <v>148.30000000000001</v>
+      </c>
+      <c r="W54">
+        <v>-70.554000000000002</v>
+      </c>
+      <c r="X54">
+        <v>-58.133000000000003</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>-21.414999999999999</v>
+      </c>
+      <c r="AA54">
+        <v>105.401</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>111.495</v>
+      </c>
+      <c r="D55">
+        <v>493.38400000000001</v>
+      </c>
+      <c r="E55">
+        <v>240.465</v>
+      </c>
+      <c r="F55">
+        <v>273.38600000000002</v>
+      </c>
+      <c r="G55">
+        <v>1969.3989999999999</v>
+      </c>
+      <c r="H55">
+        <v>4067.63</v>
+      </c>
+      <c r="I55">
+        <v>74.05</v>
+      </c>
+      <c r="J55">
+        <v>1003.258</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>336.07900000000001</v>
+      </c>
+      <c r="O55">
+        <v>1932.1690000000001</v>
+      </c>
+      <c r="P55">
+        <v>1020.758</v>
+      </c>
+      <c r="Q55">
+        <v>91.503</v>
+      </c>
+      <c r="R55">
+        <v>41729</v>
+      </c>
+      <c r="S55">
+        <v>8604</v>
+      </c>
+      <c r="T55">
+        <v>2135.4609999999998</v>
+      </c>
+      <c r="U55">
+        <v>466.60300000000001</v>
+      </c>
+      <c r="V55">
+        <v>203.34100000000001</v>
+      </c>
+      <c r="W55">
+        <v>-70.882000000000005</v>
+      </c>
+      <c r="X55">
+        <v>-56.917999999999999</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>-19.812000000000001</v>
+      </c>
+      <c r="AA55">
+        <v>111.495</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>89.909000000000006</v>
+      </c>
+      <c r="D56">
+        <v>528.87599999999998</v>
+      </c>
+      <c r="E56">
+        <v>284.399</v>
+      </c>
+      <c r="F56">
+        <v>314.31900000000002</v>
+      </c>
+      <c r="G56">
+        <v>2450.3510000000001</v>
+      </c>
+      <c r="H56">
+        <v>4501.7430000000004</v>
+      </c>
+      <c r="I56">
+        <v>79.888999999999996</v>
+      </c>
+      <c r="J56">
+        <v>1335.6780000000001</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>-174.523</v>
+      </c>
+      <c r="N56">
+        <v>359.69</v>
+      </c>
+      <c r="O56">
+        <v>2332.098</v>
+      </c>
+      <c r="P56">
+        <v>1353.1780000000001</v>
+      </c>
+      <c r="Q56">
+        <v>151.167</v>
+      </c>
+      <c r="R56">
+        <v>41820</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>2169.645</v>
+      </c>
+      <c r="U56">
+        <v>617.77</v>
+      </c>
+      <c r="V56">
+        <v>165.78800000000001</v>
+      </c>
+      <c r="W56">
+        <v>-71.201999999999998</v>
+      </c>
+      <c r="X56">
+        <v>257.80700000000002</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>148.697</v>
+      </c>
+      <c r="AA56">
+        <v>89.909000000000006</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>93.641000000000005</v>
+      </c>
+      <c r="D57">
+        <v>546.24300000000005</v>
+      </c>
+      <c r="E57">
+        <v>285.154</v>
+      </c>
+      <c r="F57">
+        <v>320.154</v>
+      </c>
+      <c r="G57">
+        <v>1978.9649999999999</v>
+      </c>
+      <c r="H57">
+        <v>4610.6270000000004</v>
+      </c>
+      <c r="I57">
+        <v>94.402000000000001</v>
+      </c>
+      <c r="J57">
+        <v>1323.8710000000001</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>385.48399999999998</v>
+      </c>
+      <c r="O57">
+        <v>2358.4189999999999</v>
+      </c>
+      <c r="P57">
+        <v>1341.3710000000001</v>
+      </c>
+      <c r="Q57">
+        <v>-136.33099999999999</v>
+      </c>
+      <c r="R57">
+        <v>41912</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>2252.2080000000001</v>
+      </c>
+      <c r="U57">
+        <v>481.43900000000002</v>
+      </c>
+      <c r="V57">
+        <v>192.04599999999999</v>
+      </c>
+      <c r="W57">
+        <v>-71.441999999999993</v>
+      </c>
+      <c r="X57">
+        <v>-80.412999999999997</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>47.741999999999997</v>
+      </c>
+      <c r="AA57">
+        <v>93.641000000000005</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>86.057000000000002</v>
+      </c>
+      <c r="D58">
+        <v>528.71</v>
+      </c>
+      <c r="E58">
+        <v>239.52600000000001</v>
+      </c>
+      <c r="F58">
+        <v>306.15899999999999</v>
+      </c>
+      <c r="G58">
+        <v>1783.479</v>
+      </c>
+      <c r="H58">
+        <v>4628.9170000000004</v>
+      </c>
+      <c r="I58">
+        <v>76.933000000000007</v>
+      </c>
+      <c r="J58">
+        <v>1342.095</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>353.08600000000001</v>
+      </c>
+      <c r="O58">
+        <v>2346.6390000000001</v>
+      </c>
+      <c r="P58">
+        <v>1359.595</v>
+      </c>
+      <c r="Q58">
+        <v>-25.1</v>
+      </c>
+      <c r="R58">
+        <v>42004</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <v>2282.2779999999998</v>
+      </c>
+      <c r="U58">
+        <v>456.339</v>
+      </c>
+      <c r="V58">
+        <v>184.83799999999999</v>
+      </c>
+      <c r="W58">
+        <v>-71.787000000000006</v>
+      </c>
+      <c r="X58">
+        <v>-53.372</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>-97.14</v>
+      </c>
+      <c r="AA58">
+        <v>86.057000000000002</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>99.402000000000001</v>
+      </c>
+      <c r="D59">
+        <v>543.20699999999999</v>
+      </c>
+      <c r="E59">
+        <v>267.22300000000001</v>
+      </c>
+      <c r="F59">
+        <v>313.63200000000001</v>
+      </c>
+      <c r="G59">
+        <v>2664.6170000000002</v>
+      </c>
+      <c r="H59">
+        <v>4780.7129999999997</v>
+      </c>
+      <c r="I59">
+        <v>86.866</v>
+      </c>
+      <c r="J59">
+        <v>1826.8579999999999</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>353.97199999999998</v>
+      </c>
+      <c r="O59">
+        <v>2719.6869999999999</v>
+      </c>
+      <c r="P59">
+        <v>1826.8579999999999</v>
+      </c>
+      <c r="Q59">
+        <v>151.476</v>
+      </c>
+      <c r="R59">
+        <v>42094</v>
+      </c>
+      <c r="S59">
+        <v>9449</v>
+      </c>
+      <c r="T59">
+        <v>2061.0259999999998</v>
+      </c>
+      <c r="U59">
+        <v>607.81500000000005</v>
+      </c>
+      <c r="V59">
+        <v>178.51</v>
+      </c>
+      <c r="W59">
+        <v>-72.046999999999997</v>
+      </c>
+      <c r="X59">
+        <v>-25.474</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>38.448</v>
+      </c>
+      <c r="AA59">
+        <v>99.402000000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>130.667</v>
+      </c>
+      <c r="D60">
+        <v>533.952</v>
+      </c>
+      <c r="E60">
+        <v>273.49799999999999</v>
+      </c>
+      <c r="F60">
+        <v>309.017</v>
+      </c>
+      <c r="G60">
+        <v>2255.614</v>
+      </c>
+      <c r="H60">
+        <v>4856.9849999999997</v>
+      </c>
+      <c r="I60">
+        <v>93.655000000000001</v>
+      </c>
+      <c r="J60">
+        <v>1864.739</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>-110.166</v>
+      </c>
+      <c r="N60">
+        <v>372.30799999999999</v>
+      </c>
+      <c r="O60">
+        <v>2758.1030000000001</v>
+      </c>
+      <c r="P60">
+        <v>1864.739</v>
+      </c>
+      <c r="Q60">
+        <v>-44.268000000000001</v>
+      </c>
+      <c r="R60">
+        <v>42185</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>2098.8820000000001</v>
+      </c>
+      <c r="U60">
+        <v>563.54700000000003</v>
+      </c>
+      <c r="V60">
+        <v>181.52799999999999</v>
+      </c>
+      <c r="W60">
+        <v>-72.331000000000003</v>
+      </c>
+      <c r="X60">
+        <v>-38.606999999999999</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>-134.38800000000001</v>
+      </c>
+      <c r="AA60">
+        <v>130.667</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>64.899000000000001</v>
+      </c>
+      <c r="D61">
+        <v>541.39099999999996</v>
+      </c>
+      <c r="E61">
+        <v>277.58199999999999</v>
+      </c>
+      <c r="F61">
+        <v>309.95</v>
+      </c>
+      <c r="G61">
+        <v>2778.8870000000002</v>
+      </c>
+      <c r="H61">
+        <v>5786.3090000000002</v>
+      </c>
+      <c r="I61">
+        <v>72.361999999999995</v>
+      </c>
+      <c r="J61">
+        <v>2687.8739999999998</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>371.77600000000001</v>
+      </c>
+      <c r="O61">
+        <v>3656.9279999999999</v>
+      </c>
+      <c r="P61">
+        <v>2687.8739999999998</v>
+      </c>
+      <c r="Q61">
+        <v>-24.469000000000001</v>
+      </c>
+      <c r="R61">
+        <v>42277</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>2129.3809999999999</v>
+      </c>
+      <c r="U61">
+        <v>539.07799999999997</v>
+      </c>
+      <c r="V61">
+        <v>149.886</v>
+      </c>
+      <c r="W61">
+        <v>-72.685000000000002</v>
+      </c>
+      <c r="X61">
+        <v>366.32499999999999</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>-179.26300000000001</v>
+      </c>
+      <c r="AA61">
+        <v>64.899000000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>61.210999999999999</v>
+      </c>
+      <c r="D62">
+        <v>540.34400000000005</v>
+      </c>
+      <c r="E62">
+        <v>243.864</v>
+      </c>
+      <c r="F62">
+        <v>310.51799999999997</v>
+      </c>
+      <c r="G62">
+        <v>1632.721</v>
+      </c>
+      <c r="H62">
+        <v>5446.5529999999999</v>
+      </c>
+      <c r="I62">
+        <v>69.058999999999997</v>
+      </c>
+      <c r="J62">
+        <v>2406.4740000000002</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>343.91399999999999</v>
+      </c>
+      <c r="O62">
+        <v>3320.2089999999998</v>
+      </c>
+      <c r="P62">
+        <v>2406.4740000000002</v>
+      </c>
+      <c r="Q62">
+        <v>-207.62700000000001</v>
+      </c>
+      <c r="R62">
+        <v>42369</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <v>2126.3440000000001</v>
+      </c>
+      <c r="U62">
+        <v>331.45100000000002</v>
+      </c>
+      <c r="V62">
+        <v>210.477</v>
+      </c>
+      <c r="W62">
+        <v>-72.923000000000002</v>
+      </c>
+      <c r="X62">
+        <v>-364.19600000000003</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>-33.058999999999997</v>
+      </c>
+      <c r="AA62">
+        <v>61.210999999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>67.355000000000004</v>
+      </c>
+      <c r="D63">
+        <v>557.64700000000005</v>
+      </c>
+      <c r="E63">
+        <v>286.47300000000001</v>
+      </c>
+      <c r="F63">
+        <v>320.97899999999998</v>
+      </c>
+      <c r="G63">
+        <v>3096.7130000000002</v>
+      </c>
+      <c r="H63">
+        <v>5537.8829999999998</v>
+      </c>
+      <c r="I63">
+        <v>79.311999999999998</v>
+      </c>
+      <c r="J63">
+        <v>2453.4050000000002</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>382.00900000000001</v>
+      </c>
+      <c r="O63">
+        <v>3386.9639999999999</v>
+      </c>
+      <c r="P63">
+        <v>2453.4050000000002</v>
+      </c>
+      <c r="Q63">
+        <v>1761.3</v>
+      </c>
+      <c r="R63">
+        <v>42460</v>
+      </c>
+      <c r="S63">
+        <v>9766</v>
+      </c>
+      <c r="T63">
+        <v>2150.9189999999999</v>
+      </c>
+      <c r="U63">
+        <v>2092.7510000000002</v>
+      </c>
+      <c r="V63">
+        <v>202.59200000000001</v>
+      </c>
+      <c r="W63">
+        <v>-73.147999999999996</v>
+      </c>
+      <c r="X63">
+        <v>-23.466000000000001</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>1599.741</v>
+      </c>
+      <c r="AA63">
+        <v>67.355000000000004</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>-113.363</v>
+      </c>
+      <c r="D64">
+        <v>799.41099999999994</v>
+      </c>
+      <c r="E64">
+        <v>431.37599999999998</v>
+      </c>
+      <c r="F64">
+        <v>443.19</v>
+      </c>
+      <c r="G64">
+        <v>1672.9880000000001</v>
+      </c>
+      <c r="H64">
+        <v>7358.7560000000003</v>
+      </c>
+      <c r="I64">
+        <v>137.614</v>
+      </c>
+      <c r="J64">
+        <v>3336.5039999999999</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>-602.19500000000005</v>
+      </c>
+      <c r="N64">
+        <v>573.28499999999997</v>
+      </c>
+      <c r="O64">
+        <v>4826.2070000000003</v>
+      </c>
+      <c r="P64">
+        <v>3336.5039999999999</v>
+      </c>
+      <c r="Q64">
+        <v>-1492.2249999999999</v>
+      </c>
+      <c r="R64">
+        <v>42551</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>2532.549</v>
+      </c>
+      <c r="U64">
+        <v>600.52599999999995</v>
+      </c>
+      <c r="V64">
+        <v>223.96700000000001</v>
+      </c>
+      <c r="W64">
+        <v>-77.236999999999995</v>
+      </c>
+      <c r="X64">
+        <v>580.01499999999999</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>470.99400000000003</v>
+      </c>
+      <c r="AA64">
+        <v>-113.363</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>33.918999999999997</v>
+      </c>
+      <c r="D65">
+        <v>871.36400000000003</v>
+      </c>
+      <c r="E65">
+        <v>447.11099999999999</v>
+      </c>
+      <c r="F65">
+        <v>494.92099999999999</v>
+      </c>
+      <c r="G65">
+        <v>1490.7349999999999</v>
+      </c>
+      <c r="H65">
+        <v>7074.3959999999997</v>
+      </c>
+      <c r="I65">
+        <v>131.625</v>
+      </c>
+      <c r="J65">
+        <v>3105.433</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>578.803</v>
+      </c>
+      <c r="O65">
+        <v>4554.884</v>
+      </c>
+      <c r="P65">
+        <v>3105.433</v>
+      </c>
+      <c r="Q65">
+        <v>-110.538</v>
+      </c>
+      <c r="R65">
+        <v>42643</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>2519.5120000000002</v>
+      </c>
+      <c r="U65">
+        <v>489.988</v>
+      </c>
+      <c r="V65">
+        <v>222.12299999999999</v>
+      </c>
+      <c r="W65">
+        <v>-77.64</v>
+      </c>
+      <c r="X65">
+        <v>-312.17399999999998</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>1.4E-2</v>
+      </c>
+      <c r="AA65">
+        <v>33.918999999999997</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>107.175</v>
+      </c>
+      <c r="D66">
+        <v>834.36599999999999</v>
+      </c>
+      <c r="E66">
+        <v>470.48599999999999</v>
+      </c>
+      <c r="F66">
+        <v>477.25900000000001</v>
+      </c>
+      <c r="G66">
+        <v>1676.75</v>
+      </c>
+      <c r="H66">
+        <v>7144.5810000000001</v>
+      </c>
+      <c r="I66">
+        <v>135.16</v>
+      </c>
+      <c r="J66">
+        <v>3123.9940000000001</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>651.553</v>
+      </c>
+      <c r="O66">
+        <v>4577.683</v>
+      </c>
+      <c r="P66">
+        <v>3123.9940000000001</v>
+      </c>
+      <c r="Q66">
+        <v>173.95</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
+      <c r="T66">
+        <v>2566.8980000000001</v>
+      </c>
+      <c r="U66">
+        <v>663.93799999999999</v>
+      </c>
+      <c r="V66">
+        <v>290.80200000000002</v>
+      </c>
+      <c r="W66">
+        <v>-77.97</v>
+      </c>
+      <c r="X66">
+        <v>-82.043000000000006</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>-35.122</v>
+      </c>
+      <c r="AA66">
+        <v>107.175</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>136.869</v>
+      </c>
+      <c r="D67">
+        <v>902.65899999999999</v>
+      </c>
+      <c r="E67">
+        <v>471.2</v>
+      </c>
+      <c r="F67">
+        <v>528.63</v>
+      </c>
+      <c r="G67">
+        <v>2305</v>
+      </c>
+      <c r="H67">
+        <v>7686.9</v>
+      </c>
+      <c r="I67">
+        <v>149.19999999999999</v>
+      </c>
+      <c r="J67">
+        <v>2900.5</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>704.5</v>
+      </c>
+      <c r="O67">
+        <v>4416.2</v>
+      </c>
+      <c r="P67">
+        <v>2950.5</v>
+      </c>
+      <c r="Q67">
+        <v>244.81299999999999</v>
+      </c>
+      <c r="R67">
+        <v>42825</v>
+      </c>
+      <c r="S67">
+        <v>12656</v>
+      </c>
+      <c r="T67">
+        <v>3270.7</v>
+      </c>
+      <c r="U67">
+        <v>908.7</v>
+      </c>
+      <c r="V67">
+        <v>322.608</v>
+      </c>
+      <c r="W67">
+        <v>-82.552999999999997</v>
+      </c>
+      <c r="X67">
+        <v>409.702</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>-463.88600000000002</v>
+      </c>
+      <c r="AA67">
+        <v>136.869</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>170.6</v>
+      </c>
+      <c r="D68">
+        <v>972.1</v>
+      </c>
+      <c r="E68">
+        <v>522.96299999999997</v>
+      </c>
+      <c r="F68">
+        <v>584.4</v>
+      </c>
+      <c r="G68">
+        <v>2298.7620000000002</v>
+      </c>
+      <c r="H68">
+        <v>7887.8909999999996</v>
+      </c>
+      <c r="I68">
+        <v>171.857</v>
+      </c>
+      <c r="J68">
+        <v>2983.9079999999999</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>-60.2</v>
+      </c>
+      <c r="N68">
+        <v>736.44299999999998</v>
+      </c>
+      <c r="O68">
+        <v>4475.3370000000004</v>
+      </c>
+      <c r="P68">
+        <v>2995.1640000000002</v>
+      </c>
+      <c r="Q68">
+        <v>-135.69999999999999</v>
+      </c>
+      <c r="R68">
+        <v>42916</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>3412.5540000000001</v>
+      </c>
+      <c r="U68">
+        <v>773.03599999999994</v>
+      </c>
+      <c r="V68">
+        <v>345</v>
+      </c>
+      <c r="W68">
+        <v>-82.9</v>
+      </c>
+      <c r="X68">
+        <v>-89.3</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>-377.4</v>
+      </c>
+      <c r="AA68">
+        <v>170.6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>189.1</v>
+      </c>
+      <c r="D69">
+        <v>1012.1</v>
+      </c>
+      <c r="E69">
+        <v>537.42600000000004</v>
+      </c>
+      <c r="F69">
+        <v>614.1</v>
+      </c>
+      <c r="G69">
+        <v>2443.422</v>
+      </c>
+      <c r="H69">
+        <v>8055.1980000000003</v>
+      </c>
+      <c r="I69">
+        <v>182.59899999999999</v>
+      </c>
+      <c r="J69">
+        <v>3011.8519999999999</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>734.18600000000004</v>
+      </c>
+      <c r="O69">
+        <v>4509.0739999999996</v>
+      </c>
+      <c r="P69">
+        <v>3017.8319999999999</v>
+      </c>
+      <c r="Q69">
+        <v>53.4</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>3546.1239999999998</v>
+      </c>
+      <c r="U69">
+        <v>826.40700000000004</v>
+      </c>
+      <c r="V69">
+        <v>350.1</v>
+      </c>
+      <c r="W69">
+        <v>-84.5</v>
+      </c>
+      <c r="X69">
+        <v>-96.1</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>-139</v>
+      </c>
+      <c r="AA69">
+        <v>189.2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>-251</v>
+      </c>
+      <c r="D70">
+        <v>994.2</v>
+      </c>
+      <c r="E70">
+        <v>545.45299999999997</v>
+      </c>
+      <c r="F70">
+        <v>607.1</v>
+      </c>
+      <c r="G70">
+        <v>2253.4409999999998</v>
+      </c>
+      <c r="H70">
+        <v>8123.7929999999997</v>
+      </c>
+      <c r="I70">
+        <v>162.71799999999999</v>
+      </c>
+      <c r="J70">
+        <v>3039.623</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>756.83199999999999</v>
+      </c>
+      <c r="O70">
+        <v>4938.7179999999998</v>
+      </c>
+      <c r="P70">
+        <v>3039.623</v>
+      </c>
+      <c r="Q70">
+        <v>-154.30000000000001</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>0</v>
+      </c>
+      <c r="T70">
+        <v>3185.0749999999998</v>
+      </c>
+      <c r="U70">
+        <v>672.07899999999995</v>
+      </c>
+      <c r="V70">
+        <v>365</v>
+      </c>
+      <c r="W70">
+        <v>-85</v>
+      </c>
+      <c r="X70">
+        <v>-149.69999999999999</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>-301.7</v>
+      </c>
+      <c r="AA70">
+        <v>-251.1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>146.69999999999999</v>
+      </c>
+      <c r="D71">
+        <v>1002.3</v>
+      </c>
+      <c r="E71">
+        <v>555.6</v>
+      </c>
+      <c r="F71">
+        <v>615.1</v>
+      </c>
+      <c r="G71">
+        <v>3356.3</v>
+      </c>
+      <c r="H71">
+        <v>8257.2000000000007</v>
+      </c>
+      <c r="I71">
+        <v>144.1</v>
+      </c>
+      <c r="J71">
+        <v>1758.4</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>2017.4</v>
+      </c>
+      <c r="O71">
+        <v>4977.3999999999996</v>
+      </c>
+      <c r="P71">
+        <v>3068.3</v>
+      </c>
+      <c r="Q71">
+        <v>229.2</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>14234</v>
+      </c>
+      <c r="T71">
+        <v>3279.8</v>
+      </c>
+      <c r="U71">
+        <v>901.3</v>
+      </c>
+      <c r="V71">
+        <v>359.5</v>
+      </c>
+      <c r="W71">
+        <v>-85.1</v>
+      </c>
+      <c r="X71">
+        <v>-80.2</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>10</v>
+      </c>
+      <c r="AA71">
+        <v>146.69999999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="D72">
+        <v>1212.5</v>
+      </c>
+      <c r="E72">
+        <v>780.5</v>
+      </c>
+      <c r="F72">
+        <v>749.5</v>
+      </c>
+      <c r="G72">
+        <v>2818.4</v>
+      </c>
+      <c r="H72">
+        <v>19248.8</v>
+      </c>
+      <c r="I72">
+        <v>318.2</v>
+      </c>
+      <c r="J72">
+        <v>10019.799999999999</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>-2208.5</v>
+      </c>
+      <c r="N72">
+        <v>2139.3000000000002</v>
+      </c>
+      <c r="O72">
+        <v>14125</v>
+      </c>
+      <c r="P72">
+        <v>11349.6</v>
+      </c>
+      <c r="Q72">
+        <v>-266.10000000000002</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>5123.8</v>
+      </c>
+      <c r="U72">
+        <v>635.20000000000005</v>
+      </c>
+      <c r="V72">
+        <v>302.39999999999998</v>
+      </c>
+      <c r="W72">
+        <v>-85.5</v>
+      </c>
+      <c r="X72">
+        <v>6098</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>1275.5999999999999</v>
+      </c>
+      <c r="AA72">
+        <v>35.700000000000003</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>96.3</v>
+      </c>
+      <c r="D73">
+        <v>1432.5</v>
+      </c>
+      <c r="E73">
+        <v>662.5</v>
+      </c>
+      <c r="F73">
+        <v>871.4</v>
+      </c>
+      <c r="G73">
+        <v>2176.1999999999998</v>
+      </c>
+      <c r="H73">
+        <v>18667.099999999999</v>
+      </c>
+      <c r="I73">
+        <v>271.2</v>
+      </c>
+      <c r="J73">
+        <v>9551.1</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>2088.1</v>
+      </c>
+      <c r="O73">
+        <v>13496.9</v>
+      </c>
+      <c r="P73">
+        <v>10886.1</v>
+      </c>
+      <c r="Q73">
+        <v>-175.5</v>
+      </c>
+      <c r="R73">
+        <v>43373</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>5170.2</v>
+      </c>
+      <c r="U73">
+        <v>459.7</v>
+      </c>
+      <c r="V73">
+        <v>487.5</v>
+      </c>
+      <c r="W73">
+        <v>-85.9</v>
+      </c>
+      <c r="X73">
+        <v>-593.5</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="AA73">
+        <v>96.3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>49.2</v>
+      </c>
+      <c r="D74">
+        <v>1374.7</v>
+      </c>
+      <c r="E74">
+        <v>537.29999999999995</v>
+      </c>
+      <c r="F74">
+        <v>865.6</v>
+      </c>
+      <c r="G74">
+        <v>1877.6</v>
+      </c>
+      <c r="H74">
+        <v>18155.7</v>
+      </c>
+      <c r="I74">
+        <v>236</v>
+      </c>
+      <c r="J74">
+        <v>10542.3</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>643.70000000000005</v>
+      </c>
+      <c r="O74">
+        <v>12994.6</v>
+      </c>
+      <c r="P74">
+        <v>10542.3</v>
+      </c>
+      <c r="Q74">
+        <v>-27.5</v>
+      </c>
+      <c r="R74">
+        <v>43465</v>
+      </c>
+      <c r="S74">
+        <v>0</v>
+      </c>
+      <c r="T74">
+        <v>5161.1000000000004</v>
+      </c>
+      <c r="U74">
+        <v>432.2</v>
+      </c>
+      <c r="V74">
+        <v>481.5</v>
+      </c>
+      <c r="W74">
+        <v>-86.4</v>
+      </c>
+      <c r="X74">
+        <v>-477.6</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>-0.2</v>
+      </c>
+      <c r="AA74">
+        <v>49.2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>174.7</v>
+      </c>
+      <c r="D75">
+        <v>1329.8</v>
+      </c>
+      <c r="E75">
+        <v>873.8</v>
+      </c>
+      <c r="F75">
+        <v>810.4</v>
+      </c>
+      <c r="G75">
+        <v>2214.8000000000002</v>
+      </c>
+      <c r="H75">
+        <v>18350</v>
+      </c>
+      <c r="I75">
+        <v>226.4</v>
+      </c>
+      <c r="J75">
+        <v>8946.2000000000007</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>2374.5</v>
+      </c>
+      <c r="O75">
+        <v>13062.5</v>
+      </c>
+      <c r="P75">
+        <v>10307</v>
+      </c>
+      <c r="Q75">
+        <v>-3.6</v>
+      </c>
+      <c r="R75">
+        <v>43555</v>
+      </c>
+      <c r="S75">
+        <v>18286</v>
+      </c>
+      <c r="T75">
+        <v>5287.5</v>
+      </c>
+      <c r="U75">
+        <v>428.6</v>
+      </c>
+      <c r="V75">
+        <v>403.4</v>
+      </c>
+      <c r="W75">
+        <v>-86.6</v>
+      </c>
+      <c r="X75">
+        <v>-363.4</v>
+      </c>
+      <c r="Y75">
+        <v>0</v>
+      </c>
+      <c r="Z75">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AA75">
+        <v>174.7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>50.7</v>
+      </c>
+      <c r="D76">
+        <v>1322.6</v>
+      </c>
+      <c r="E76">
+        <v>929.1</v>
+      </c>
+      <c r="F76">
+        <v>815.2</v>
+      </c>
+      <c r="G76">
+        <v>2278.5</v>
+      </c>
+      <c r="H76">
+        <v>18246.400000000001</v>
+      </c>
+      <c r="I76">
+        <v>245.7</v>
+      </c>
+      <c r="J76">
+        <v>8711.4</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>-461.7</v>
+      </c>
+      <c r="N76">
+        <v>2450.8000000000002</v>
+      </c>
+      <c r="O76">
+        <v>12958.1</v>
+      </c>
+      <c r="P76">
+        <v>10224.6</v>
+      </c>
+      <c r="Q76">
+        <v>5.4</v>
+      </c>
+      <c r="R76">
+        <v>43646</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>5288.3</v>
+      </c>
+      <c r="U76">
+        <v>434</v>
+      </c>
+      <c r="V76">
+        <v>380.6</v>
+      </c>
+      <c r="W76">
+        <v>-87.1</v>
+      </c>
+      <c r="X76">
+        <v>-348.9</v>
+      </c>
+      <c r="Y76">
+        <v>100.6</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+      <c r="AA76">
+        <v>50.7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>108.9</v>
+      </c>
+      <c r="D77">
+        <v>1337.8</v>
+      </c>
+      <c r="E77">
+        <v>840.7</v>
+      </c>
+      <c r="F77">
+        <v>827.5</v>
+      </c>
+      <c r="G77">
+        <v>2177.8000000000002</v>
+      </c>
+      <c r="H77">
+        <v>17858.5</v>
+      </c>
+      <c r="I77">
+        <v>235.6</v>
+      </c>
+      <c r="J77">
+        <v>8415.2999999999993</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>2423.4</v>
+      </c>
+      <c r="O77">
+        <v>12497.2</v>
+      </c>
+      <c r="P77">
+        <v>9954.9</v>
+      </c>
+      <c r="Q77">
+        <v>-32.200000000000003</v>
+      </c>
+      <c r="R77">
+        <v>43738</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>5361.3</v>
+      </c>
+      <c r="U77">
+        <v>401.8</v>
+      </c>
+      <c r="V77">
+        <v>396</v>
+      </c>
+      <c r="W77">
+        <v>-87.3</v>
+      </c>
+      <c r="X77">
+        <v>-399.8</v>
+      </c>
+      <c r="Y77">
+        <v>111.8</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+      <c r="AA77">
+        <v>108.9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>311.10000000000002</v>
+      </c>
+      <c r="D78">
+        <v>1287.4000000000001</v>
+      </c>
+      <c r="E78">
+        <v>796</v>
+      </c>
+      <c r="F78">
+        <v>785.5</v>
+      </c>
+      <c r="G78">
+        <v>2104</v>
+      </c>
+      <c r="H78">
+        <v>17588.599999999999</v>
+      </c>
+      <c r="I78">
+        <v>209.3</v>
+      </c>
+      <c r="J78">
+        <v>8179.7</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>2336.6</v>
+      </c>
+      <c r="O78">
+        <v>11972</v>
+      </c>
+      <c r="P78">
+        <v>9734.4</v>
+      </c>
+      <c r="Q78">
+        <v>-4.7</v>
+      </c>
+      <c r="R78">
+        <v>43830</v>
+      </c>
+      <c r="S78">
+        <v>0</v>
+      </c>
+      <c r="T78">
+        <v>5616.6</v>
+      </c>
+      <c r="U78">
+        <v>397.1</v>
+      </c>
+      <c r="V78">
+        <v>395.5</v>
+      </c>
+      <c r="W78">
+        <v>-87.7</v>
+      </c>
+      <c r="X78">
+        <v>-357.2</v>
+      </c>
+      <c r="Y78">
+        <v>111</v>
+      </c>
+      <c r="Z78">
+        <v>-2</v>
+      </c>
+      <c r="AA78">
+        <v>311.10000000000002</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>99.9</v>
+      </c>
+      <c r="D79">
+        <v>1326.4</v>
+      </c>
+      <c r="E79">
+        <v>919.2</v>
+      </c>
+      <c r="F79">
+        <v>813.9</v>
+      </c>
+      <c r="G79">
+        <v>2217.1999999999998</v>
+      </c>
+      <c r="H79">
+        <v>17426.099999999999</v>
+      </c>
+      <c r="I79">
+        <v>246.8</v>
+      </c>
+      <c r="J79">
+        <v>8873.4</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>1637.4</v>
+      </c>
+      <c r="O79">
+        <v>11840.6</v>
+      </c>
+      <c r="P79">
+        <v>9621.4</v>
+      </c>
+      <c r="Q79">
+        <v>3.9</v>
+      </c>
+      <c r="R79">
+        <v>43921</v>
+      </c>
+      <c r="S79">
+        <v>18000</v>
+      </c>
+      <c r="T79">
+        <v>5585.5</v>
+      </c>
+      <c r="U79">
+        <v>401</v>
+      </c>
+      <c r="V79">
+        <v>371.7</v>
+      </c>
+      <c r="W79">
+        <v>-88</v>
+      </c>
+      <c r="X79">
+        <v>-332.3</v>
+      </c>
+      <c r="Y79">
+        <v>94.7</v>
+      </c>
+      <c r="Z79">
+        <v>4.7</v>
+      </c>
+      <c r="AA79">
+        <v>99.9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>123.6</v>
+      </c>
+      <c r="D80">
+        <v>1309.7</v>
+      </c>
+      <c r="E80">
+        <v>884.7</v>
+      </c>
+      <c r="F80">
+        <v>798.3</v>
+      </c>
+      <c r="G80">
+        <v>2135</v>
+      </c>
+      <c r="H80">
+        <v>17028.099999999999</v>
+      </c>
+      <c r="I80">
+        <v>211.1</v>
+      </c>
+      <c r="J80">
+        <v>7730</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>-615</v>
+      </c>
+      <c r="M80">
+        <v>-3217.1</v>
+      </c>
+      <c r="N80">
+        <v>2585.8000000000002</v>
+      </c>
+      <c r="O80">
+        <v>11526.8</v>
+      </c>
+      <c r="P80">
+        <v>9366.5</v>
+      </c>
+      <c r="Q80">
+        <v>-22.8</v>
+      </c>
+      <c r="R80">
+        <v>44012</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>5501.3</v>
+      </c>
+      <c r="U80">
+        <v>378.2</v>
+      </c>
+      <c r="V80">
+        <v>501.8</v>
+      </c>
+      <c r="W80">
+        <v>-90.4</v>
+      </c>
+      <c r="X80">
+        <v>-507.7</v>
+      </c>
+      <c r="Y80">
+        <v>0</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+      <c r="AA80">
+        <v>123.6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="D81">
+        <v>1309.5</v>
+      </c>
+      <c r="E81">
+        <v>893.2</v>
+      </c>
+      <c r="F81">
+        <v>807.9</v>
+      </c>
+      <c r="G81">
+        <v>2122.1</v>
+      </c>
+      <c r="H81">
+        <v>16770.900000000001</v>
+      </c>
+      <c r="I81">
+        <v>216.9</v>
+      </c>
+      <c r="J81">
+        <v>8181.4</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>1975.2</v>
+      </c>
+      <c r="O81">
+        <v>11327.2</v>
+      </c>
+      <c r="P81">
+        <v>9217.7000000000007</v>
+      </c>
+      <c r="Q81">
+        <v>-9.9</v>
+      </c>
+      <c r="R81">
+        <v>44104</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>5443.7</v>
+      </c>
+      <c r="U81">
+        <v>368.3</v>
+      </c>
+      <c r="V81">
+        <v>455.8</v>
+      </c>
+      <c r="W81">
+        <v>-95.3</v>
+      </c>
+      <c r="X81">
+        <v>-424</v>
+      </c>
+      <c r="Y81">
+        <v>0</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+      <c r="AA81">
+        <v>73.599999999999994</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>36.200000000000003</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>1352.1</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>882.7</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>845.8</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>2152.5</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>16576.099999999999</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>259.8</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>7647.8</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>2522.1999999999998</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>11279.1</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>9181.2000000000007</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>2.4</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44196</v>
       </c>
-      <c r="S42">
-        <v>0</v>
-      </c>
-      <c r="T42">
+      <c r="S82">
+        <v>0</v>
+      </c>
+      <c r="T82">
         <v>5297</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>370.7</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>509.7</v>
       </c>
-      <c r="W42">
+      <c r="W82">
         <v>-96</v>
       </c>
-      <c r="X42">
+      <c r="X82">
         <v>-455.8</v>
       </c>
-      <c r="Y42">
-        <v>0</v>
-      </c>
-      <c r="Z42">
-        <v>0</v>
-      </c>
-      <c r="AA42">
+      <c r="Y82">
+        <v>0</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+      <c r="AA82">
         <v>36.200000000000003</v>
       </c>
     </row>
